--- a/CourseSchedulingSystem/Resources/Fixtures/Courses.xlsx
+++ b/CourseSchedulingSystem/Resources/Fixtures/Courses.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f2ad9755387dd328/Documents/Schedules/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CourseSchedulingSystem\CourseSchedulingSystem\Resources\Fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1094" documentId="8_{D44E3879-AEC3-4E56-B1FB-02B182A7825F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{86DCF48D-D7A4-46C3-83CD-A5722503FDDD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B1CA4B-7CBA-4D0D-9F42-5B4DA1DCDDEF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2EEABFC3-DDD5-4F52-B413-E6F3168BE135}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1937" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1925" uniqueCount="529">
   <si>
     <t>Subject</t>
   </si>
@@ -633,12 +633,6 @@
     <t>493</t>
   </si>
   <si>
-    <t>INFD</t>
-  </si>
-  <si>
-    <t>251</t>
-  </si>
-  <si>
     <t>MGMT</t>
   </si>
   <si>
@@ -1383,9 +1377,6 @@
     <t>Seminar in Health Care Management (3)</t>
   </si>
   <si>
-    <t>Information Design Seminar: Special Topics (1:1:0)</t>
-  </si>
-  <si>
     <t>General Management Elective</t>
   </si>
   <si>
@@ -1557,9 +1548,6 @@
     <t>Independent Study/Research, Internship, Practicum/Cooperative edu</t>
   </si>
   <si>
-    <t>Field Studies, Independent Study/Research, Practicum Cooperative edu</t>
-  </si>
-  <si>
     <t>Field Studies, Independent Study/Research, Lecture</t>
   </si>
   <si>
@@ -1599,9 +1587,6 @@
     <t>Seminar/Recitation</t>
   </si>
   <si>
-    <t>Independent Study/Research, Lecture, Seminar/Recitation</t>
-  </si>
-  <si>
     <t>Course Attributes</t>
   </si>
   <si>
@@ -1630,6 +1615,9 @@
   </si>
   <si>
     <t>Logic Language and Semiotics, Quantitative Skills Req</t>
+  </si>
+  <si>
+    <t>Field Studies, Independent Study/Research, Practicum/Cooperative edu</t>
   </si>
 </sst>
 </file>
@@ -1637,7 +1625,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -1670,7 +1658,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1678,10 +1666,10 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.000"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1697,14 +1685,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B32C3046-1ADE-4CBA-BBF8-AA780DD5DC7D}" name="Table1" displayName="Table1" ref="A1:H311" totalsRowShown="0">
-  <autoFilter ref="A1:H311" xr:uid="{07C7D2AE-645C-46EA-A539-E4AD8AA6267D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B32C3046-1ADE-4CBA-BBF8-AA780DD5DC7D}" name="Table1" displayName="Table1" ref="A1:H309" totalsRowShown="0">
+  <autoFilter ref="A1:H309" xr:uid="{07C7D2AE-645C-46EA-A539-E4AD8AA6267D}"/>
   <tableColumns count="8">
     <tableColumn id="21" xr3:uid="{FFA873AB-E9A1-4E67-99C4-7450A3C8D445}" name="Department"/>
     <tableColumn id="1" xr3:uid="{0F1E7D4A-B8F9-444F-826C-D4CAB9A8879E}" name="Subject"/>
-    <tableColumn id="2" xr3:uid="{6A6F9926-3D1D-41D4-9933-1CEE5DD43455}" name="Number" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{6A6F9926-3D1D-41D4-9933-1CEE5DD43455}" name="Number" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{BB654010-8556-47AC-8DF1-B784E984B089}" name="Name"/>
-    <tableColumn id="4" xr3:uid="{36028FE4-C503-4F99-993C-A194C33992EF}" name="Credit Hours" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{36028FE4-C503-4F99-993C-A194C33992EF}" name="Credit Hours" dataDxfId="0"/>
     <tableColumn id="8" xr3:uid="{4D066F27-41CA-4D3C-A82F-E339C0D6115D}" name="Levels"/>
     <tableColumn id="9" xr3:uid="{5FD02F4C-1328-48DF-8D4F-0BA800767B51}" name="Schedule Types"/>
     <tableColumn id="22" xr3:uid="{E0739410-A68D-4743-97D6-72AEA81B7590}" name="Course Attributes"/>
@@ -2010,10 +1998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F8E37D-7DCC-4752-9B52-9CEB0B60F50E}">
-  <dimension ref="A1:H311"/>
+  <dimension ref="A1:H309"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2051,7 +2039,7 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2088,7 +2076,7 @@
         <v>280</v>
       </c>
       <c r="D3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E3" s="1">
         <v>3</v>
@@ -2097,7 +2085,7 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2111,7 +2099,7 @@
         <v>281</v>
       </c>
       <c r="D4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -2120,7 +2108,7 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2134,7 +2122,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
@@ -2143,7 +2131,7 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2180,7 +2168,7 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
@@ -2189,7 +2177,7 @@
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2203,7 +2191,7 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
@@ -2212,7 +2200,7 @@
         <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2226,7 +2214,7 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
@@ -2235,7 +2223,7 @@
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2249,7 +2237,7 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E10" s="1">
         <v>3</v>
@@ -2258,7 +2246,7 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2272,7 +2260,7 @@
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E11" s="1">
         <v>3</v>
@@ -2281,7 +2269,7 @@
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2295,7 +2283,7 @@
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E12" s="1">
         <v>3</v>
@@ -2304,7 +2292,7 @@
         <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2318,7 +2306,7 @@
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E13" s="1">
         <v>3</v>
@@ -2327,7 +2315,7 @@
         <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2341,7 +2329,7 @@
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E14" s="1">
         <v>3</v>
@@ -2350,7 +2338,7 @@
         <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2387,16 +2375,16 @@
         <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E16" s="1">
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G16" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2410,16 +2398,16 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E17" s="1">
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G17" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2433,16 +2421,16 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E18" s="1">
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G18" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2456,16 +2444,16 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E19" s="1">
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G19" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2479,16 +2467,16 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E20" s="1">
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G20" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2502,16 +2490,16 @@
         <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E21" s="1">
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G21" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2525,16 +2513,16 @@
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E22" s="1">
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G22" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2548,16 +2536,16 @@
         <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E23" s="1">
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G23" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2571,16 +2559,16 @@
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E24" s="1">
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G24" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2600,7 +2588,7 @@
         <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -2617,16 +2605,16 @@
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E26" s="1">
         <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G26" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2640,19 +2628,19 @@
         <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E27" s="1">
         <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G27" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H27" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2666,16 +2654,16 @@
         <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E28" s="1">
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G28" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2686,19 +2674,19 @@
         <v>7</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D29" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E29" s="1">
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G29" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2712,16 +2700,16 @@
         <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E30" s="1">
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G30" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2735,16 +2723,16 @@
         <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
       </c>
       <c r="F31" t="s">
+        <v>499</v>
+      </c>
+      <c r="G31" t="s">
         <v>502</v>
-      </c>
-      <c r="G31" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2758,16 +2746,16 @@
         <v>38</v>
       </c>
       <c r="D32" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
       </c>
       <c r="F32" t="s">
+        <v>499</v>
+      </c>
+      <c r="G32" t="s">
         <v>502</v>
-      </c>
-      <c r="G32" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2781,16 +2769,16 @@
         <v>39</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
       </c>
       <c r="F33" t="s">
+        <v>499</v>
+      </c>
+      <c r="G33" t="s">
         <v>502</v>
-      </c>
-      <c r="G33" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2804,16 +2792,16 @@
         <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
       </c>
       <c r="F34" t="s">
+        <v>499</v>
+      </c>
+      <c r="G34" t="s">
         <v>502</v>
-      </c>
-      <c r="G34" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2827,16 +2815,16 @@
         <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G35" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2850,16 +2838,16 @@
         <v>42</v>
       </c>
       <c r="D36" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E36" s="1">
         <v>3</v>
       </c>
       <c r="F36" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G36" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2879,15 +2867,15 @@
         <v>3</v>
       </c>
       <c r="F37" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G37" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B38" t="s">
         <v>47</v>
@@ -2896,7 +2884,7 @@
         <v>44</v>
       </c>
       <c r="D38" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E38" s="1">
         <v>3</v>
@@ -2910,7 +2898,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B39" t="s">
         <v>47</v>
@@ -2919,7 +2907,7 @@
         <v>45</v>
       </c>
       <c r="D39" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E39" s="1">
         <v>3</v>
@@ -2928,12 +2916,12 @@
         <v>9</v>
       </c>
       <c r="G39" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B40" t="s">
         <v>47</v>
@@ -2942,7 +2930,7 @@
         <v>46</v>
       </c>
       <c r="D40" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E40" s="1">
         <v>3</v>
@@ -2956,7 +2944,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B41" t="s">
         <v>47</v>
@@ -2965,7 +2953,7 @@
         <v>48</v>
       </c>
       <c r="D41" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E41" s="1">
         <v>3</v>
@@ -2974,12 +2962,12 @@
         <v>9</v>
       </c>
       <c r="G41" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B42" t="s">
         <v>47</v>
@@ -2988,7 +2976,7 @@
         <v>49</v>
       </c>
       <c r="D42" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E42" s="1">
         <v>3</v>
@@ -2997,12 +2985,12 @@
         <v>9</v>
       </c>
       <c r="G42" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B43" t="s">
         <v>47</v>
@@ -3011,7 +2999,7 @@
         <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E43" s="1">
         <v>3</v>
@@ -3025,16 +3013,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B44" t="s">
         <v>47</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D44" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
@@ -3043,12 +3031,12 @@
         <v>9</v>
       </c>
       <c r="G44" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B45" t="s">
         <v>47</v>
@@ -3057,7 +3045,7 @@
         <v>50</v>
       </c>
       <c r="D45" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E45" s="1">
         <v>2</v>
@@ -3066,12 +3054,12 @@
         <v>9</v>
       </c>
       <c r="G45" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
@@ -3080,7 +3068,7 @@
         <v>51</v>
       </c>
       <c r="D46" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E46" s="1">
         <v>3</v>
@@ -3089,12 +3077,12 @@
         <v>9</v>
       </c>
       <c r="G46" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B47" t="s">
         <v>47</v>
@@ -3103,7 +3091,7 @@
         <v>52</v>
       </c>
       <c r="D47" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E47" s="1">
         <v>3</v>
@@ -3112,12 +3100,12 @@
         <v>9</v>
       </c>
       <c r="G47" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B48" t="s">
         <v>47</v>
@@ -3126,7 +3114,7 @@
         <v>53</v>
       </c>
       <c r="D48" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E48" s="1">
         <v>3</v>
@@ -3140,7 +3128,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B49" t="s">
         <v>47</v>
@@ -3149,7 +3137,7 @@
         <v>54</v>
       </c>
       <c r="D49" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E49" s="1">
         <v>3</v>
@@ -3158,12 +3146,12 @@
         <v>9</v>
       </c>
       <c r="G49" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B50" t="s">
         <v>47</v>
@@ -3172,7 +3160,7 @@
         <v>20</v>
       </c>
       <c r="D50" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E50" s="1">
         <v>3</v>
@@ -3181,12 +3169,12 @@
         <v>9</v>
       </c>
       <c r="G50" t="s">
-        <v>508</v>
+        <v>528</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B51" t="s">
         <v>47</v>
@@ -3195,7 +3183,7 @@
         <v>55</v>
       </c>
       <c r="D51" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E51" s="1">
         <v>3</v>
@@ -3204,12 +3192,12 @@
         <v>9</v>
       </c>
       <c r="G51" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B52" t="s">
         <v>47</v>
@@ -3218,7 +3206,7 @@
         <v>56</v>
       </c>
       <c r="D52" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E52" s="1">
         <v>3</v>
@@ -3227,12 +3215,12 @@
         <v>9</v>
       </c>
       <c r="G52" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B53" t="s">
         <v>47</v>
@@ -3241,7 +3229,7 @@
         <v>21</v>
       </c>
       <c r="D53" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E53" s="1">
         <v>3</v>
@@ -3250,12 +3238,12 @@
         <v>9</v>
       </c>
       <c r="G53" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B54" t="s">
         <v>47</v>
@@ -3264,7 +3252,7 @@
         <v>57</v>
       </c>
       <c r="D54" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E54" s="1">
         <v>3</v>
@@ -3273,12 +3261,12 @@
         <v>9</v>
       </c>
       <c r="G54" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B55" t="s">
         <v>47</v>
@@ -3287,7 +3275,7 @@
         <v>22</v>
       </c>
       <c r="D55" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E55" s="1">
         <v>3</v>
@@ -3301,7 +3289,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B56" t="s">
         <v>47</v>
@@ -3310,21 +3298,21 @@
         <v>23</v>
       </c>
       <c r="D56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E56" s="1">
         <v>3</v>
       </c>
       <c r="F56" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G56" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B57" t="s">
         <v>47</v>
@@ -3333,21 +3321,21 @@
         <v>58</v>
       </c>
       <c r="D57" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E57" s="1">
         <v>3</v>
       </c>
       <c r="F57" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G57" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B58" t="s">
         <v>47</v>
@@ -3356,21 +3344,21 @@
         <v>59</v>
       </c>
       <c r="D58" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E58" s="1">
         <v>3</v>
       </c>
       <c r="F58" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G58" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B59" t="s">
         <v>47</v>
@@ -3379,21 +3367,21 @@
         <v>60</v>
       </c>
       <c r="D59" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E59" s="1">
         <v>3</v>
       </c>
       <c r="F59" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G59" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B60" t="s">
         <v>47</v>
@@ -3402,21 +3390,21 @@
         <v>61</v>
       </c>
       <c r="D60" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E60" s="1">
         <v>3</v>
       </c>
       <c r="F60" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G60" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B61" t="s">
         <v>47</v>
@@ -3425,21 +3413,21 @@
         <v>62</v>
       </c>
       <c r="D61" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E61" s="1">
         <v>3</v>
       </c>
       <c r="F61" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G61" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B62" t="s">
         <v>47</v>
@@ -3448,13 +3436,13 @@
         <v>63</v>
       </c>
       <c r="D62" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E62" s="1">
         <v>3</v>
       </c>
       <c r="F62" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G62" t="s">
         <v>10</v>
@@ -3462,7 +3450,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B63" t="s">
         <v>47</v>
@@ -3471,21 +3459,21 @@
         <v>64</v>
       </c>
       <c r="D63" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E63" s="1">
         <v>3</v>
       </c>
       <c r="F63" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G63" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B64" t="s">
         <v>47</v>
@@ -3494,21 +3482,21 @@
         <v>65</v>
       </c>
       <c r="D64" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E64" s="1">
         <v>3</v>
       </c>
       <c r="F64" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G64" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B65" t="s">
         <v>47</v>
@@ -3517,21 +3505,21 @@
         <v>66</v>
       </c>
       <c r="D65" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E65" s="1">
         <v>3</v>
       </c>
       <c r="F65" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G65" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B66" t="s">
         <v>47</v>
@@ -3540,21 +3528,21 @@
         <v>67</v>
       </c>
       <c r="D66" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E66" s="1">
         <v>3</v>
       </c>
       <c r="F66" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G66" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B67" t="s">
         <v>47</v>
@@ -3563,21 +3551,21 @@
         <v>68</v>
       </c>
       <c r="D67" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E67" s="1">
         <v>3</v>
       </c>
       <c r="F67" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G67" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B68" t="s">
         <v>47</v>
@@ -3586,21 +3574,21 @@
         <v>69</v>
       </c>
       <c r="D68" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E68" s="1">
         <v>3</v>
       </c>
       <c r="F68" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G68" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B69" t="s">
         <v>47</v>
@@ -3609,21 +3597,21 @@
         <v>70</v>
       </c>
       <c r="D69" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E69" s="1">
         <v>3</v>
       </c>
       <c r="F69" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G69" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B70" t="s">
         <v>47</v>
@@ -3632,21 +3620,21 @@
         <v>71</v>
       </c>
       <c r="D70" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E70" s="1">
         <v>3</v>
       </c>
       <c r="F70" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G70" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B71" t="s">
         <v>47</v>
@@ -3655,21 +3643,21 @@
         <v>72</v>
       </c>
       <c r="D71" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E71" s="1">
         <v>3</v>
       </c>
       <c r="F71" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G71" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B72" t="s">
         <v>47</v>
@@ -3678,21 +3666,21 @@
         <v>73</v>
       </c>
       <c r="D72" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E72" s="1">
         <v>3</v>
       </c>
       <c r="F72" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G72" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B73" t="s">
         <v>47</v>
@@ -3701,21 +3689,21 @@
         <v>74</v>
       </c>
       <c r="D73" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E73" s="1">
         <v>3</v>
       </c>
       <c r="F73" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G73" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B74" t="s">
         <v>47</v>
@@ -3724,21 +3712,21 @@
         <v>75</v>
       </c>
       <c r="D74" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E74" s="1">
         <v>3</v>
       </c>
       <c r="F74" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G74" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B75" t="s">
         <v>47</v>
@@ -3747,21 +3735,21 @@
         <v>76</v>
       </c>
       <c r="D75" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E75" s="1">
         <v>3</v>
       </c>
       <c r="F75" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G75" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B76" t="s">
         <v>47</v>
@@ -3770,21 +3758,21 @@
         <v>77</v>
       </c>
       <c r="D76" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E76" s="1">
         <v>3</v>
       </c>
       <c r="F76" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G76" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B77" t="s">
         <v>47</v>
@@ -3793,21 +3781,21 @@
         <v>78</v>
       </c>
       <c r="D77" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E77" s="1">
         <v>3</v>
       </c>
       <c r="F77" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G77" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B78" t="s">
         <v>47</v>
@@ -3816,21 +3804,21 @@
         <v>79</v>
       </c>
       <c r="D78" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E78" s="1">
         <v>3</v>
       </c>
       <c r="F78" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G78" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B79" t="s">
         <v>47</v>
@@ -3839,21 +3827,21 @@
         <v>80</v>
       </c>
       <c r="D79" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E79" s="1">
         <v>3</v>
       </c>
       <c r="F79" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G79" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B80" t="s">
         <v>47</v>
@@ -3862,21 +3850,21 @@
         <v>81</v>
       </c>
       <c r="D80" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E80" s="1">
         <v>3</v>
       </c>
       <c r="F80" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G80" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B81" t="s">
         <v>47</v>
@@ -3885,21 +3873,21 @@
         <v>82</v>
       </c>
       <c r="D81" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E81" s="1">
         <v>3</v>
       </c>
       <c r="F81" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G81" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B82" t="s">
         <v>47</v>
@@ -3908,21 +3896,21 @@
         <v>83</v>
       </c>
       <c r="D82" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E82" s="1">
         <v>3</v>
       </c>
       <c r="F82" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G82" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B83" t="s">
         <v>47</v>
@@ -3931,21 +3919,21 @@
         <v>42</v>
       </c>
       <c r="D83" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E83" s="1">
         <v>3</v>
       </c>
       <c r="F83" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G83" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B84" t="s">
         <v>47</v>
@@ -3954,21 +3942,21 @@
         <v>84</v>
       </c>
       <c r="D84" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E84" s="1">
         <v>3</v>
       </c>
       <c r="F84" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G84" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B85" t="s">
         <v>47</v>
@@ -3977,21 +3965,21 @@
         <v>85</v>
       </c>
       <c r="D85" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E85" s="1">
         <v>3</v>
       </c>
       <c r="F85" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G85" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B86" t="s">
         <v>47</v>
@@ -4000,13 +3988,13 @@
         <v>43</v>
       </c>
       <c r="D86" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E86" s="1">
         <v>3</v>
       </c>
       <c r="F86" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G86" t="s">
         <v>10</v>
@@ -4014,7 +4002,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B87" t="s">
         <v>86</v>
@@ -4023,7 +4011,7 @@
         <v>87</v>
       </c>
       <c r="D87" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E87" s="1">
         <v>1.5</v>
@@ -4032,15 +4020,15 @@
         <v>9</v>
       </c>
       <c r="G87" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H87" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B88" t="s">
         <v>86</v>
@@ -4049,7 +4037,7 @@
         <v>88</v>
       </c>
       <c r="D88" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E88" s="1">
         <v>0.5</v>
@@ -4058,15 +4046,15 @@
         <v>9</v>
       </c>
       <c r="G88" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H88" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B89" t="s">
         <v>86</v>
@@ -4075,7 +4063,7 @@
         <v>89</v>
       </c>
       <c r="D89" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E89" s="1">
         <v>0.5</v>
@@ -4084,15 +4072,15 @@
         <v>9</v>
       </c>
       <c r="G89" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H89" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B90" t="s">
         <v>86</v>
@@ -4101,7 +4089,7 @@
         <v>90</v>
       </c>
       <c r="D90" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E90" s="1">
         <v>0.5</v>
@@ -4110,15 +4098,15 @@
         <v>9</v>
       </c>
       <c r="G90" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H90" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B91" t="s">
         <v>86</v>
@@ -4127,7 +4115,7 @@
         <v>91</v>
       </c>
       <c r="D91" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E91" s="1">
         <v>0.5</v>
@@ -4136,15 +4124,15 @@
         <v>9</v>
       </c>
       <c r="G91" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H91" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B92" t="s">
         <v>86</v>
@@ -4153,7 +4141,7 @@
         <v>92</v>
       </c>
       <c r="D92" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E92" s="1">
         <v>0.5</v>
@@ -4162,15 +4150,15 @@
         <v>9</v>
       </c>
       <c r="G92" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H92" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B93" t="s">
         <v>86</v>
@@ -4179,7 +4167,7 @@
         <v>93</v>
       </c>
       <c r="D93" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E93" s="1">
         <v>1.5</v>
@@ -4188,15 +4176,15 @@
         <v>9</v>
       </c>
       <c r="G93" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H93" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B94" t="s">
         <v>86</v>
@@ -4205,7 +4193,7 @@
         <v>94</v>
       </c>
       <c r="D94" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E94" s="1">
         <v>0.5</v>
@@ -4214,15 +4202,15 @@
         <v>9</v>
       </c>
       <c r="G94" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H94" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B95" t="s">
         <v>86</v>
@@ -4231,7 +4219,7 @@
         <v>95</v>
       </c>
       <c r="D95" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E95" s="1">
         <v>0.5</v>
@@ -4240,15 +4228,15 @@
         <v>9</v>
       </c>
       <c r="G95" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="H95" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B96" t="s">
         <v>86</v>
@@ -4257,7 +4245,7 @@
         <v>96</v>
       </c>
       <c r="D96" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E96" s="1">
         <v>0.5</v>
@@ -4266,15 +4254,15 @@
         <v>9</v>
       </c>
       <c r="G96" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="H96" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B97" t="s">
         <v>86</v>
@@ -4283,7 +4271,7 @@
         <v>97</v>
       </c>
       <c r="D97" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E97" s="1">
         <v>4</v>
@@ -4292,12 +4280,12 @@
         <v>9</v>
       </c>
       <c r="G97" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B98" t="s">
         <v>86</v>
@@ -4306,7 +4294,7 @@
         <v>98</v>
       </c>
       <c r="D98" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E98" s="1">
         <v>3</v>
@@ -4315,15 +4303,15 @@
         <v>9</v>
       </c>
       <c r="G98" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H98" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B99" t="s">
         <v>86</v>
@@ -4332,7 +4320,7 @@
         <v>99</v>
       </c>
       <c r="D99" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E99" s="1">
         <v>3</v>
@@ -4341,15 +4329,15 @@
         <v>9</v>
       </c>
       <c r="G99" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H99" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B100" t="s">
         <v>86</v>
@@ -4358,7 +4346,7 @@
         <v>46</v>
       </c>
       <c r="D100" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E100" s="1">
         <v>3</v>
@@ -4367,12 +4355,12 @@
         <v>9</v>
       </c>
       <c r="G100" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B101" t="s">
         <v>86</v>
@@ -4381,7 +4369,7 @@
         <v>100</v>
       </c>
       <c r="D101" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E101" s="1">
         <v>4</v>
@@ -4390,15 +4378,15 @@
         <v>9</v>
       </c>
       <c r="G101" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H101" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B102" t="s">
         <v>86</v>
@@ -4407,7 +4395,7 @@
         <v>101</v>
       </c>
       <c r="D102" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E102" s="1">
         <v>4</v>
@@ -4416,15 +4404,15 @@
         <v>9</v>
       </c>
       <c r="G102" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H102" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B103" t="s">
         <v>86</v>
@@ -4433,7 +4421,7 @@
         <v>102</v>
       </c>
       <c r="D103" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E103" s="1">
         <v>4</v>
@@ -4442,15 +4430,15 @@
         <v>9</v>
       </c>
       <c r="G103" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H103" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B104" t="s">
         <v>86</v>
@@ -4459,7 +4447,7 @@
         <v>103</v>
       </c>
       <c r="D104" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E104" s="1">
         <v>4</v>
@@ -4468,15 +4456,15 @@
         <v>9</v>
       </c>
       <c r="G104" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H104" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B105" t="s">
         <v>86</v>
@@ -4485,7 +4473,7 @@
         <v>104</v>
       </c>
       <c r="D105" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E105" s="1">
         <v>3</v>
@@ -4494,15 +4482,15 @@
         <v>9</v>
       </c>
       <c r="G105" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H105" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B106" t="s">
         <v>86</v>
@@ -4511,7 +4499,7 @@
         <v>105</v>
       </c>
       <c r="D106" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E106" s="1">
         <v>3</v>
@@ -4520,15 +4508,15 @@
         <v>9</v>
       </c>
       <c r="G106" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H106" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B107" t="s">
         <v>86</v>
@@ -4537,7 +4525,7 @@
         <v>106</v>
       </c>
       <c r="D107" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E107" s="1">
         <v>3</v>
@@ -4546,15 +4534,15 @@
         <v>9</v>
       </c>
       <c r="G107" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="H107" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B108" t="s">
         <v>86</v>
@@ -4563,7 +4551,7 @@
         <v>107</v>
       </c>
       <c r="D108" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E108" s="1">
         <v>3</v>
@@ -4572,15 +4560,15 @@
         <v>9</v>
       </c>
       <c r="G108" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="H108" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B109" t="s">
         <v>86</v>
@@ -4589,7 +4577,7 @@
         <v>108</v>
       </c>
       <c r="D109" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E109" s="1">
         <v>3</v>
@@ -4598,15 +4586,15 @@
         <v>9</v>
       </c>
       <c r="G109" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H109" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B110" t="s">
         <v>86</v>
@@ -4615,7 +4603,7 @@
         <v>109</v>
       </c>
       <c r="D110" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E110" s="1">
         <v>3</v>
@@ -4627,12 +4615,12 @@
         <v>10</v>
       </c>
       <c r="H110" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B111" t="s">
         <v>86</v>
@@ -4641,7 +4629,7 @@
         <v>110</v>
       </c>
       <c r="D111" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E111" s="1">
         <v>1</v>
@@ -4650,15 +4638,15 @@
         <v>9</v>
       </c>
       <c r="G111" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H111" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B112" t="s">
         <v>86</v>
@@ -4667,7 +4655,7 @@
         <v>111</v>
       </c>
       <c r="D112" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E112" s="1">
         <v>1</v>
@@ -4676,15 +4664,15 @@
         <v>9</v>
       </c>
       <c r="G112" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H112" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B113" t="s">
         <v>86</v>
@@ -4693,7 +4681,7 @@
         <v>112</v>
       </c>
       <c r="D113" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E113" s="1">
         <v>1</v>
@@ -4702,15 +4690,15 @@
         <v>9</v>
       </c>
       <c r="G113" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H113" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B114" t="s">
         <v>86</v>
@@ -4719,7 +4707,7 @@
         <v>13</v>
       </c>
       <c r="D114" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E114" s="1">
         <v>3</v>
@@ -4733,7 +4721,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B115" t="s">
         <v>86</v>
@@ -4742,7 +4730,7 @@
         <v>113</v>
       </c>
       <c r="D115" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E115" s="1">
         <v>3</v>
@@ -4751,15 +4739,15 @@
         <v>9</v>
       </c>
       <c r="G115" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H115" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B116" t="s">
         <v>86</v>
@@ -4768,7 +4756,7 @@
         <v>114</v>
       </c>
       <c r="D116" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E116" s="1">
         <v>3</v>
@@ -4777,15 +4765,15 @@
         <v>9</v>
       </c>
       <c r="G116" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H116" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B117" t="s">
         <v>86</v>
@@ -4794,7 +4782,7 @@
         <v>115</v>
       </c>
       <c r="D117" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E117" s="1">
         <v>3</v>
@@ -4803,15 +4791,15 @@
         <v>9</v>
       </c>
       <c r="G117" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H117" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B118" t="s">
         <v>86</v>
@@ -4820,7 +4808,7 @@
         <v>116</v>
       </c>
       <c r="D118" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E118" s="1">
         <v>3</v>
@@ -4829,15 +4817,15 @@
         <v>9</v>
       </c>
       <c r="G118" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H118" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B119" t="s">
         <v>86</v>
@@ -4846,7 +4834,7 @@
         <v>117</v>
       </c>
       <c r="D119" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E119" s="1">
         <v>3</v>
@@ -4855,12 +4843,12 @@
         <v>9</v>
       </c>
       <c r="G119" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B120" t="s">
         <v>86</v>
@@ -4869,7 +4857,7 @@
         <v>118</v>
       </c>
       <c r="D120" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E120" s="1">
         <v>3</v>
@@ -4878,15 +4866,15 @@
         <v>9</v>
       </c>
       <c r="G120" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H120" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B121" t="s">
         <v>86</v>
@@ -4895,7 +4883,7 @@
         <v>119</v>
       </c>
       <c r="D121" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E121" s="1">
         <v>3</v>
@@ -4904,15 +4892,15 @@
         <v>9</v>
       </c>
       <c r="G121" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H121" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B122" t="s">
         <v>86</v>
@@ -4921,7 +4909,7 @@
         <v>120</v>
       </c>
       <c r="D122" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E122" s="1">
         <v>1</v>
@@ -4930,15 +4918,15 @@
         <v>9</v>
       </c>
       <c r="G122" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H122" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B123" t="s">
         <v>86</v>
@@ -4947,7 +4935,7 @@
         <v>121</v>
       </c>
       <c r="D123" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E123" s="1">
         <v>1</v>
@@ -4956,15 +4944,15 @@
         <v>9</v>
       </c>
       <c r="G123" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H123" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B124" t="s">
         <v>86</v>
@@ -4973,7 +4961,7 @@
         <v>53</v>
       </c>
       <c r="D124" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E124" s="1">
         <v>3</v>
@@ -4982,12 +4970,12 @@
         <v>9</v>
       </c>
       <c r="G124" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B125" t="s">
         <v>86</v>
@@ -4996,7 +4984,7 @@
         <v>56</v>
       </c>
       <c r="D125" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E125" s="1">
         <v>3</v>
@@ -5005,15 +4993,15 @@
         <v>9</v>
       </c>
       <c r="G125" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H125" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B126" t="s">
         <v>86</v>
@@ -5022,7 +5010,7 @@
         <v>122</v>
       </c>
       <c r="D126" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E126" s="1">
         <v>3</v>
@@ -5031,15 +5019,15 @@
         <v>9</v>
       </c>
       <c r="G126" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H126" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B127" t="s">
         <v>86</v>
@@ -5048,7 +5036,7 @@
         <v>123</v>
       </c>
       <c r="D127" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E127" s="1">
         <v>3</v>
@@ -5057,15 +5045,15 @@
         <v>9</v>
       </c>
       <c r="G127" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H127" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B128" t="s">
         <v>86</v>
@@ -5074,7 +5062,7 @@
         <v>124</v>
       </c>
       <c r="D128" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E128" s="1">
         <v>3</v>
@@ -5083,15 +5071,15 @@
         <v>9</v>
       </c>
       <c r="G128" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H128" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B129" t="s">
         <v>86</v>
@@ -5100,7 +5088,7 @@
         <v>125</v>
       </c>
       <c r="D129" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E129" s="1">
         <v>3</v>
@@ -5109,15 +5097,15 @@
         <v>9</v>
       </c>
       <c r="G129" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H129" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B130" t="s">
         <v>86</v>
@@ -5126,7 +5114,7 @@
         <v>126</v>
       </c>
       <c r="D130" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E130" s="1">
         <v>3</v>
@@ -5135,15 +5123,15 @@
         <v>9</v>
       </c>
       <c r="G130" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H130" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B131" t="s">
         <v>86</v>
@@ -5152,7 +5140,7 @@
         <v>127</v>
       </c>
       <c r="D131" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E131" s="1">
         <v>3</v>
@@ -5161,15 +5149,15 @@
         <v>9</v>
       </c>
       <c r="G131" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H131" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B132" t="s">
         <v>86</v>
@@ -5178,7 +5166,7 @@
         <v>128</v>
       </c>
       <c r="D132" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E132" s="1">
         <v>3</v>
@@ -5187,15 +5175,15 @@
         <v>9</v>
       </c>
       <c r="G132" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H132" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B133" t="s">
         <v>86</v>
@@ -5204,7 +5192,7 @@
         <v>129</v>
       </c>
       <c r="D133" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E133" s="1">
         <v>3</v>
@@ -5213,15 +5201,15 @@
         <v>9</v>
       </c>
       <c r="G133" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H133" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B134" t="s">
         <v>86</v>
@@ -5230,7 +5218,7 @@
         <v>130</v>
       </c>
       <c r="D134" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E134" s="1">
         <v>3</v>
@@ -5244,7 +5232,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B135" t="s">
         <v>86</v>
@@ -5253,7 +5241,7 @@
         <v>131</v>
       </c>
       <c r="D135" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E135" s="1">
         <v>3</v>
@@ -5262,15 +5250,15 @@
         <v>9</v>
       </c>
       <c r="G135" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H135" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B136" t="s">
         <v>86</v>
@@ -5279,7 +5267,7 @@
         <v>132</v>
       </c>
       <c r="D136" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E136" s="1">
         <v>3</v>
@@ -5288,12 +5276,12 @@
         <v>9</v>
       </c>
       <c r="G136" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B137" t="s">
         <v>86</v>
@@ -5302,7 +5290,7 @@
         <v>133</v>
       </c>
       <c r="D137" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E137" s="1">
         <v>3</v>
@@ -5311,15 +5299,15 @@
         <v>9</v>
       </c>
       <c r="G137" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H137" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B138" t="s">
         <v>86</v>
@@ -5328,7 +5316,7 @@
         <v>134</v>
       </c>
       <c r="D138" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E138" s="1">
         <v>3</v>
@@ -5337,15 +5325,15 @@
         <v>9</v>
       </c>
       <c r="G138" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H138" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B139" t="s">
         <v>86</v>
@@ -5354,7 +5342,7 @@
         <v>135</v>
       </c>
       <c r="D139" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E139" s="1">
         <v>3</v>
@@ -5363,15 +5351,15 @@
         <v>9</v>
       </c>
       <c r="G139" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H139" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B140" t="s">
         <v>86</v>
@@ -5380,7 +5368,7 @@
         <v>21</v>
       </c>
       <c r="D140" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E140" s="1">
         <v>3</v>
@@ -5389,15 +5377,15 @@
         <v>9</v>
       </c>
       <c r="G140" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H140" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B141" t="s">
         <v>86</v>
@@ -5406,7 +5394,7 @@
         <v>22</v>
       </c>
       <c r="D141" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E141" s="1">
         <v>3</v>
@@ -5420,7 +5408,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B142" t="s">
         <v>86</v>
@@ -5429,24 +5417,24 @@
         <v>136</v>
       </c>
       <c r="D142" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E142" s="1">
         <v>3</v>
       </c>
       <c r="F142" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G142" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H142" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B143" t="s">
         <v>86</v>
@@ -5455,24 +5443,24 @@
         <v>137</v>
       </c>
       <c r="D143" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E143" s="1">
         <v>3</v>
       </c>
       <c r="F143" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G143" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H143" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B144" t="s">
         <v>86</v>
@@ -5481,24 +5469,24 @@
         <v>60</v>
       </c>
       <c r="D144" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E144" s="1">
         <v>3</v>
       </c>
       <c r="F144" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G144" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H144" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B145" t="s">
         <v>86</v>
@@ -5507,21 +5495,21 @@
         <v>138</v>
       </c>
       <c r="D145" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E145" s="1">
         <v>3</v>
       </c>
       <c r="F145" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G145" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B146" t="s">
         <v>86</v>
@@ -5530,21 +5518,21 @@
         <v>139</v>
       </c>
       <c r="D146" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E146" s="1">
         <v>3</v>
       </c>
       <c r="F146" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G146" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B147" t="s">
         <v>86</v>
@@ -5553,21 +5541,21 @@
         <v>41</v>
       </c>
       <c r="D147" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E147" s="1">
         <v>1</v>
       </c>
       <c r="F147" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G147" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B148" t="s">
         <v>86</v>
@@ -5576,21 +5564,21 @@
         <v>42</v>
       </c>
       <c r="D148" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E148" s="1">
         <v>3</v>
       </c>
       <c r="F148" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G148" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B149" t="s">
         <v>86</v>
@@ -5599,21 +5587,21 @@
         <v>43</v>
       </c>
       <c r="D149" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E149" s="1">
         <v>3</v>
       </c>
       <c r="F149" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G149" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B150" t="s">
         <v>140</v>
@@ -5622,7 +5610,7 @@
         <v>97</v>
       </c>
       <c r="D150" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E150" s="1">
         <v>4</v>
@@ -5631,15 +5619,15 @@
         <v>9</v>
       </c>
       <c r="G150" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="H150" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B151" t="s">
         <v>140</v>
@@ -5648,7 +5636,7 @@
         <v>141</v>
       </c>
       <c r="D151" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E151" s="1">
         <v>4</v>
@@ -5657,15 +5645,15 @@
         <v>9</v>
       </c>
       <c r="G151" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="H151" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B152" t="s">
         <v>140</v>
@@ -5674,7 +5662,7 @@
         <v>98</v>
       </c>
       <c r="D152" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E152" s="1">
         <v>1</v>
@@ -5683,12 +5671,12 @@
         <v>9</v>
       </c>
       <c r="G152" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B153" t="s">
         <v>140</v>
@@ -5697,7 +5685,7 @@
         <v>104</v>
       </c>
       <c r="D153" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E153" s="1">
         <v>3</v>
@@ -5706,12 +5694,12 @@
         <v>9</v>
       </c>
       <c r="G153" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B154" t="s">
         <v>140</v>
@@ -5720,7 +5708,7 @@
         <v>142</v>
       </c>
       <c r="D154" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E154" s="1">
         <v>3</v>
@@ -5729,12 +5717,12 @@
         <v>9</v>
       </c>
       <c r="G154" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B155" t="s">
         <v>140</v>
@@ -5743,7 +5731,7 @@
         <v>143</v>
       </c>
       <c r="D155" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E155" s="1">
         <v>3</v>
@@ -5752,12 +5740,12 @@
         <v>9</v>
       </c>
       <c r="G155" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B156" t="s">
         <v>140</v>
@@ -5766,7 +5754,7 @@
         <v>144</v>
       </c>
       <c r="D156" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E156" s="1">
         <v>1</v>
@@ -5775,12 +5763,12 @@
         <v>9</v>
       </c>
       <c r="G156" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B157" t="s">
         <v>140</v>
@@ -5789,7 +5777,7 @@
         <v>145</v>
       </c>
       <c r="D157" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E157" s="1">
         <v>3</v>
@@ -5798,12 +5786,12 @@
         <v>9</v>
       </c>
       <c r="G157" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B158" t="s">
         <v>140</v>
@@ -5812,7 +5800,7 @@
         <v>130</v>
       </c>
       <c r="D158" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E158" s="1">
         <v>3</v>
@@ -5821,10 +5809,10 @@
         <v>9</v>
       </c>
       <c r="G158" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H158" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -5838,7 +5826,7 @@
         <v>147</v>
       </c>
       <c r="D159" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E159" s="1">
         <v>3</v>
@@ -5847,10 +5835,10 @@
         <v>9</v>
       </c>
       <c r="G159" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H159" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -5864,7 +5852,7 @@
         <v>148</v>
       </c>
       <c r="D160" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E160" s="1">
         <v>3</v>
@@ -5873,10 +5861,10 @@
         <v>9</v>
       </c>
       <c r="G160" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H160" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -5890,7 +5878,7 @@
         <v>46</v>
       </c>
       <c r="D161" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E161" s="1">
         <v>3</v>
@@ -5913,7 +5901,7 @@
         <v>149</v>
       </c>
       <c r="D162" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E162" s="1">
         <v>3</v>
@@ -5922,10 +5910,10 @@
         <v>9</v>
       </c>
       <c r="G162" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H162" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -5939,7 +5927,7 @@
         <v>150</v>
       </c>
       <c r="D163" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E163" s="1">
         <v>3</v>
@@ -5948,10 +5936,10 @@
         <v>9</v>
       </c>
       <c r="G163" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H163" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -5965,7 +5953,7 @@
         <v>151</v>
       </c>
       <c r="D164" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E164" s="1">
         <v>3</v>
@@ -5974,10 +5962,10 @@
         <v>9</v>
       </c>
       <c r="G164" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H164" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -5991,7 +5979,7 @@
         <v>152</v>
       </c>
       <c r="D165" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E165" s="1">
         <v>3</v>
@@ -6000,10 +5988,10 @@
         <v>9</v>
       </c>
       <c r="G165" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H165" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -6017,7 +6005,7 @@
         <v>13</v>
       </c>
       <c r="D166" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E166" s="1">
         <v>3</v>
@@ -6040,7 +6028,7 @@
         <v>17</v>
       </c>
       <c r="D167" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E167" s="1">
         <v>3</v>
@@ -6049,7 +6037,7 @@
         <v>9</v>
       </c>
       <c r="G167" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
@@ -6063,7 +6051,7 @@
         <v>153</v>
       </c>
       <c r="D168" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E168" s="1">
         <v>3</v>
@@ -6072,7 +6060,7 @@
         <v>9</v>
       </c>
       <c r="G168" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -6086,7 +6074,7 @@
         <v>154</v>
       </c>
       <c r="D169" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E169" s="1">
         <v>3</v>
@@ -6095,7 +6083,7 @@
         <v>9</v>
       </c>
       <c r="G169" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -6109,7 +6097,7 @@
         <v>155</v>
       </c>
       <c r="D170" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E170" s="1">
         <v>3</v>
@@ -6118,7 +6106,7 @@
         <v>9</v>
       </c>
       <c r="G170" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -6132,7 +6120,7 @@
         <v>156</v>
       </c>
       <c r="D171" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E171" s="1">
         <v>3</v>
@@ -6141,7 +6129,7 @@
         <v>9</v>
       </c>
       <c r="G171" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -6155,7 +6143,7 @@
         <v>157</v>
       </c>
       <c r="D172" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E172" s="1">
         <v>3</v>
@@ -6164,7 +6152,7 @@
         <v>9</v>
       </c>
       <c r="G172" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -6178,7 +6166,7 @@
         <v>158</v>
       </c>
       <c r="D173" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E173" s="1">
         <v>3</v>
@@ -6187,10 +6175,10 @@
         <v>9</v>
       </c>
       <c r="G173" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H173" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -6204,7 +6192,7 @@
         <v>159</v>
       </c>
       <c r="D174" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E174" s="1">
         <v>3</v>
@@ -6213,7 +6201,7 @@
         <v>9</v>
       </c>
       <c r="G174" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -6227,7 +6215,7 @@
         <v>160</v>
       </c>
       <c r="D175" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E175" s="1">
         <v>3</v>
@@ -6236,7 +6224,7 @@
         <v>9</v>
       </c>
       <c r="G175" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -6250,7 +6238,7 @@
         <v>161</v>
       </c>
       <c r="D176" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E176" s="1">
         <v>3</v>
@@ -6259,7 +6247,7 @@
         <v>9</v>
       </c>
       <c r="G176" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -6273,7 +6261,7 @@
         <v>162</v>
       </c>
       <c r="D177" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E177" s="1">
         <v>3</v>
@@ -6282,7 +6270,7 @@
         <v>9</v>
       </c>
       <c r="G177" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -6296,7 +6284,7 @@
         <v>163</v>
       </c>
       <c r="D178" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E178" s="1">
         <v>3</v>
@@ -6305,7 +6293,7 @@
         <v>9</v>
       </c>
       <c r="G178" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -6319,7 +6307,7 @@
         <v>53</v>
       </c>
       <c r="D179" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E179" s="1">
         <v>3</v>
@@ -6342,7 +6330,7 @@
         <v>145</v>
       </c>
       <c r="D180" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E180" s="1">
         <v>3</v>
@@ -6351,7 +6339,7 @@
         <v>9</v>
       </c>
       <c r="G180" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -6365,7 +6353,7 @@
         <v>21</v>
       </c>
       <c r="D181" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E181" s="1">
         <v>3</v>
@@ -6374,7 +6362,7 @@
         <v>9</v>
       </c>
       <c r="G181" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -6388,7 +6376,7 @@
         <v>164</v>
       </c>
       <c r="D182" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E182" s="1">
         <v>3</v>
@@ -6397,7 +6385,7 @@
         <v>9</v>
       </c>
       <c r="G182" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -6411,7 +6399,7 @@
         <v>22</v>
       </c>
       <c r="D183" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E183" s="1">
         <v>3</v>
@@ -6434,16 +6422,16 @@
         <v>136</v>
       </c>
       <c r="D184" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E184" s="1">
         <v>3</v>
       </c>
       <c r="F184" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G184" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -6457,13 +6445,13 @@
         <v>63</v>
       </c>
       <c r="D185" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E185" s="1">
         <v>3</v>
       </c>
       <c r="F185" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G185" t="s">
         <v>10</v>
@@ -6480,16 +6468,16 @@
         <v>41</v>
       </c>
       <c r="D186" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E186" s="1">
         <v>1</v>
       </c>
       <c r="F186" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G186" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -6503,16 +6491,16 @@
         <v>165</v>
       </c>
       <c r="D187" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E187" s="1">
         <v>3</v>
       </c>
       <c r="F187" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G187" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -6526,16 +6514,16 @@
         <v>166</v>
       </c>
       <c r="D188" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E188" s="1">
         <v>3</v>
       </c>
       <c r="F188" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G188" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -6549,16 +6537,16 @@
         <v>42</v>
       </c>
       <c r="D189" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E189" s="1">
         <v>3</v>
       </c>
       <c r="F189" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G189" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -6572,16 +6560,16 @@
         <v>167</v>
       </c>
       <c r="D190" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E190" s="1">
         <v>3</v>
       </c>
       <c r="F190" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G190" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -6595,16 +6583,16 @@
         <v>168</v>
       </c>
       <c r="D191" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E191" s="1">
         <v>3</v>
       </c>
       <c r="F191" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G191" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -6618,16 +6606,16 @@
         <v>169</v>
       </c>
       <c r="D192" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E192" s="1">
         <v>3</v>
       </c>
       <c r="F192" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G192" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -6641,13 +6629,13 @@
         <v>43</v>
       </c>
       <c r="D193" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E193" s="1">
         <v>3</v>
       </c>
       <c r="F193" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G193" t="s">
         <v>10</v>
@@ -6655,7 +6643,7 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B194" t="s">
         <v>177</v>
@@ -6664,7 +6652,7 @@
         <v>170</v>
       </c>
       <c r="D194" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E194" s="1">
         <v>3</v>
@@ -6673,12 +6661,12 @@
         <v>9</v>
       </c>
       <c r="G194" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B195" t="s">
         <v>177</v>
@@ -6687,7 +6675,7 @@
         <v>171</v>
       </c>
       <c r="D195" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E195" s="1">
         <v>3</v>
@@ -6701,7 +6689,7 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B196" t="s">
         <v>177</v>
@@ -6710,7 +6698,7 @@
         <v>172</v>
       </c>
       <c r="D196" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E196" s="1">
         <v>3</v>
@@ -6719,12 +6707,12 @@
         <v>9</v>
       </c>
       <c r="G196" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B197" t="s">
         <v>177</v>
@@ -6733,7 +6721,7 @@
         <v>173</v>
       </c>
       <c r="D197" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E197" s="1">
         <v>3</v>
@@ -6742,12 +6730,12 @@
         <v>9</v>
       </c>
       <c r="G197" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B198" t="s">
         <v>177</v>
@@ -6756,7 +6744,7 @@
         <v>174</v>
       </c>
       <c r="D198" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E198" s="1">
         <v>3</v>
@@ -6765,12 +6753,12 @@
         <v>9</v>
       </c>
       <c r="G198" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B199" t="s">
         <v>177</v>
@@ -6779,7 +6767,7 @@
         <v>175</v>
       </c>
       <c r="D199" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E199" s="1">
         <v>3</v>
@@ -6793,7 +6781,7 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B200" t="s">
         <v>177</v>
@@ -6802,7 +6790,7 @@
         <v>21</v>
       </c>
       <c r="D200" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E200" s="1">
         <v>3</v>
@@ -6811,12 +6799,12 @@
         <v>9</v>
       </c>
       <c r="G200" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B201" t="s">
         <v>177</v>
@@ -6825,16 +6813,16 @@
         <v>176</v>
       </c>
       <c r="D201" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E201" s="1">
         <v>3</v>
       </c>
       <c r="F201" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G201" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -6848,7 +6836,7 @@
         <v>179</v>
       </c>
       <c r="D202" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E202" s="1">
         <v>1</v>
@@ -6857,7 +6845,7 @@
         <v>9</v>
       </c>
       <c r="G202" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -6871,7 +6859,7 @@
         <v>180</v>
       </c>
       <c r="D203" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E203" s="1">
         <v>1</v>
@@ -6880,7 +6868,7 @@
         <v>9</v>
       </c>
       <c r="G203" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -6894,7 +6882,7 @@
         <v>104</v>
       </c>
       <c r="D204" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E204" s="1">
         <v>3</v>
@@ -6903,7 +6891,7 @@
         <v>9</v>
       </c>
       <c r="G204" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -6917,7 +6905,7 @@
         <v>113</v>
       </c>
       <c r="D205" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E205" s="1">
         <v>3</v>
@@ -6926,7 +6914,7 @@
         <v>9</v>
       </c>
       <c r="G205" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -6940,7 +6928,7 @@
         <v>181</v>
       </c>
       <c r="D206" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E206" s="1">
         <v>3</v>
@@ -6949,7 +6937,7 @@
         <v>9</v>
       </c>
       <c r="G206" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -6963,7 +6951,7 @@
         <v>182</v>
       </c>
       <c r="D207" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E207" s="1">
         <v>3</v>
@@ -6972,7 +6960,7 @@
         <v>9</v>
       </c>
       <c r="G207" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -6986,7 +6974,7 @@
         <v>154</v>
       </c>
       <c r="D208" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E208" s="1">
         <v>3</v>
@@ -6995,7 +6983,7 @@
         <v>9</v>
       </c>
       <c r="G208" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -7009,7 +6997,7 @@
         <v>155</v>
       </c>
       <c r="D209" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E209" s="1">
         <v>3</v>
@@ -7018,7 +7006,7 @@
         <v>9</v>
       </c>
       <c r="G209" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -7032,7 +7020,7 @@
         <v>53</v>
       </c>
       <c r="D210" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E210" s="1">
         <v>3</v>
@@ -7055,7 +7043,7 @@
         <v>183</v>
       </c>
       <c r="D211" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E211" s="1">
         <v>3</v>
@@ -7064,7 +7052,7 @@
         <v>9</v>
       </c>
       <c r="G211" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -7078,7 +7066,7 @@
         <v>21</v>
       </c>
       <c r="D212" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E212" s="1">
         <v>3</v>
@@ -7087,7 +7075,7 @@
         <v>9</v>
       </c>
       <c r="G212" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -7101,7 +7089,7 @@
         <v>184</v>
       </c>
       <c r="D213" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E213" s="1">
         <v>3</v>
@@ -7110,7 +7098,7 @@
         <v>9</v>
       </c>
       <c r="G213" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -7124,7 +7112,7 @@
         <v>185</v>
       </c>
       <c r="D214" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E214" s="1">
         <v>3</v>
@@ -7133,7 +7121,7 @@
         <v>9</v>
       </c>
       <c r="G214" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -7147,16 +7135,16 @@
         <v>186</v>
       </c>
       <c r="D215" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E215" s="1">
         <v>3</v>
       </c>
       <c r="F215" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G215" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -7170,16 +7158,16 @@
         <v>187</v>
       </c>
       <c r="D216" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E216" s="1">
         <v>3</v>
       </c>
       <c r="F216" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G216" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -7193,16 +7181,16 @@
         <v>188</v>
       </c>
       <c r="D217" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E217" s="1">
         <v>3</v>
       </c>
       <c r="F217" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G217" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -7216,16 +7204,16 @@
         <v>189</v>
       </c>
       <c r="D218" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E218" s="1">
         <v>3</v>
       </c>
       <c r="F218" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G218" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -7239,16 +7227,16 @@
         <v>190</v>
       </c>
       <c r="D219" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E219" s="1">
         <v>3</v>
       </c>
       <c r="F219" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G219" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -7262,16 +7250,16 @@
         <v>191</v>
       </c>
       <c r="D220" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E220" s="1">
         <v>3</v>
       </c>
       <c r="F220" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G220" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -7285,16 +7273,16 @@
         <v>192</v>
       </c>
       <c r="D221" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E221" s="1">
         <v>3</v>
       </c>
       <c r="F221" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G221" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -7308,13 +7296,13 @@
         <v>63</v>
       </c>
       <c r="D222" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E222" s="1">
         <v>3</v>
       </c>
       <c r="F222" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G222" t="s">
         <v>10</v>
@@ -7331,16 +7319,16 @@
         <v>41</v>
       </c>
       <c r="D223" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E223" s="1">
         <v>1</v>
       </c>
       <c r="F223" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G223" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -7354,16 +7342,16 @@
         <v>42</v>
       </c>
       <c r="D224" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E224" s="1">
         <v>3</v>
       </c>
       <c r="F224" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G224" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -7377,16 +7365,16 @@
         <v>167</v>
       </c>
       <c r="D225" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E225" s="1">
         <v>3</v>
       </c>
       <c r="F225" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G225" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -7400,16 +7388,16 @@
         <v>168</v>
       </c>
       <c r="D226" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E226" s="1">
         <v>3</v>
       </c>
       <c r="F226" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G226" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -7423,13 +7411,13 @@
         <v>43</v>
       </c>
       <c r="D227" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E227" s="1">
         <v>3</v>
       </c>
       <c r="F227" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G227" t="s">
         <v>10</v>
@@ -7437,7 +7425,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B228" t="s">
         <v>193</v>
@@ -7446,7 +7434,7 @@
         <v>194</v>
       </c>
       <c r="D228" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E228" s="1">
         <v>3</v>
@@ -7455,15 +7443,15 @@
         <v>9</v>
       </c>
       <c r="G228" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H228" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B229" t="s">
         <v>193</v>
@@ -7472,7 +7460,7 @@
         <v>195</v>
       </c>
       <c r="D229" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E229" s="1">
         <v>3</v>
@@ -7481,12 +7469,12 @@
         <v>9</v>
       </c>
       <c r="G229" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B230" t="s">
         <v>193</v>
@@ -7495,7 +7483,7 @@
         <v>196</v>
       </c>
       <c r="D230" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E230" s="1">
         <v>3</v>
@@ -7504,12 +7492,12 @@
         <v>9</v>
       </c>
       <c r="G230" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B231" t="s">
         <v>193</v>
@@ -7518,7 +7506,7 @@
         <v>197</v>
       </c>
       <c r="D231" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E231" s="1">
         <v>3</v>
@@ -7527,12 +7515,12 @@
         <v>9</v>
       </c>
       <c r="G231" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B232" t="s">
         <v>193</v>
@@ -7541,7 +7529,7 @@
         <v>198</v>
       </c>
       <c r="D232" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E232" s="1">
         <v>3</v>
@@ -7550,12 +7538,12 @@
         <v>9</v>
       </c>
       <c r="G232" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B233" t="s">
         <v>193</v>
@@ -7564,7 +7552,7 @@
         <v>14</v>
       </c>
       <c r="D233" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E233" s="1">
         <v>3</v>
@@ -7573,12 +7561,12 @@
         <v>9</v>
       </c>
       <c r="G233" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B234" t="s">
         <v>193</v>
@@ -7587,7 +7575,7 @@
         <v>21</v>
       </c>
       <c r="D234" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E234" s="1">
         <v>3</v>
@@ -7596,12 +7584,12 @@
         <v>9</v>
       </c>
       <c r="G234" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B235" t="s">
         <v>193</v>
@@ -7610,7 +7598,7 @@
         <v>57</v>
       </c>
       <c r="D235" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E235" s="1">
         <v>3</v>
@@ -7619,12 +7607,12 @@
         <v>9</v>
       </c>
       <c r="G235" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B236" t="s">
         <v>193</v>
@@ -7633,7 +7621,7 @@
         <v>199</v>
       </c>
       <c r="D236" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E236" s="1">
         <v>3</v>
@@ -7642,44 +7630,44 @@
         <v>9</v>
       </c>
       <c r="G236" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B237" t="s">
         <v>200</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>201</v>
+        <v>46</v>
       </c>
       <c r="D237" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E237" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F237" t="s">
         <v>9</v>
       </c>
       <c r="G237" t="s">
-        <v>522</v>
+        <v>10</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B238" t="s">
         <v>200</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="D238" t="s">
-        <v>387</v>
+        <v>448</v>
       </c>
       <c r="E238" s="1">
         <v>3</v>
@@ -7688,21 +7676,21 @@
         <v>9</v>
       </c>
       <c r="G238" t="s">
-        <v>503</v>
+        <v>10</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B239" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="D239" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E239" s="1">
         <v>3</v>
@@ -7716,16 +7704,16 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B240" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>13</v>
+        <v>201</v>
       </c>
       <c r="D240" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E240" s="1">
         <v>3</v>
@@ -7734,21 +7722,21 @@
         <v>9</v>
       </c>
       <c r="G240" t="s">
-        <v>10</v>
+        <v>500</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B241" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D241" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E241" s="1">
         <v>3</v>
@@ -7757,21 +7745,21 @@
         <v>9</v>
       </c>
       <c r="G241" t="s">
-        <v>10</v>
+        <v>500</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B242" t="s">
+        <v>200</v>
+      </c>
+      <c r="C242" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C242" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="D242" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E242" s="1">
         <v>3</v>
@@ -7780,21 +7768,21 @@
         <v>9</v>
       </c>
       <c r="G242" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B243" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>143</v>
+        <v>203</v>
       </c>
       <c r="D243" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E243" s="1">
         <v>3</v>
@@ -7803,21 +7791,21 @@
         <v>9</v>
       </c>
       <c r="G243" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B244" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>204</v>
       </c>
       <c r="D244" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E244" s="1">
         <v>3</v>
@@ -7826,21 +7814,21 @@
         <v>9</v>
       </c>
       <c r="G244" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B245" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>205</v>
       </c>
       <c r="D245" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E245" s="1">
         <v>3</v>
@@ -7849,21 +7837,21 @@
         <v>9</v>
       </c>
       <c r="G245" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>206</v>
       </c>
       <c r="D246" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E246" s="1">
         <v>3</v>
@@ -7872,21 +7860,21 @@
         <v>9</v>
       </c>
       <c r="G246" t="s">
-        <v>503</v>
+        <v>10</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B247" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>207</v>
       </c>
       <c r="D247" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E247" s="1">
         <v>3</v>
@@ -7895,21 +7883,21 @@
         <v>9</v>
       </c>
       <c r="G247" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B248" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>208</v>
       </c>
       <c r="D248" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E248" s="1">
         <v>3</v>
@@ -7918,21 +7906,21 @@
         <v>9</v>
       </c>
       <c r="G248" t="s">
-        <v>10</v>
+        <v>500</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B249" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>209</v>
       </c>
       <c r="D249" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E249" s="1">
         <v>3</v>
@@ -7941,21 +7929,21 @@
         <v>9</v>
       </c>
       <c r="G249" t="s">
-        <v>503</v>
+        <v>10</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>210</v>
+        <v>116</v>
       </c>
       <c r="D250" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E250" s="1">
         <v>3</v>
@@ -7964,21 +7952,21 @@
         <v>9</v>
       </c>
       <c r="G250" t="s">
-        <v>503</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D251" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E251" s="1">
         <v>3</v>
@@ -7987,21 +7975,21 @@
         <v>9</v>
       </c>
       <c r="G251" t="s">
-        <v>10</v>
+        <v>500</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B252" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D252" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E252" s="1">
         <v>3</v>
@@ -8015,16 +8003,16 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B253" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>212</v>
+        <v>53</v>
       </c>
       <c r="D253" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="E253" s="1">
         <v>3</v>
@@ -8033,21 +8021,21 @@
         <v>9</v>
       </c>
       <c r="G253" t="s">
-        <v>503</v>
+        <v>10</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B254" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>117</v>
+        <v>211</v>
       </c>
       <c r="D254" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E254" s="1">
         <v>3</v>
@@ -8061,16 +8049,16 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B255" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>53</v>
+        <v>212</v>
       </c>
       <c r="D255" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="E255" s="1">
         <v>3</v>
@@ -8079,21 +8067,21 @@
         <v>9</v>
       </c>
       <c r="G255" t="s">
-        <v>10</v>
+        <v>517</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B256" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>213</v>
+        <v>134</v>
       </c>
       <c r="D256" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E256" s="1">
         <v>3</v>
@@ -8102,21 +8090,21 @@
         <v>9</v>
       </c>
       <c r="G256" t="s">
-        <v>10</v>
+        <v>500</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B257" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D257" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E257" s="1">
         <v>3</v>
@@ -8125,21 +8113,24 @@
         <v>9</v>
       </c>
       <c r="G257" t="s">
-        <v>521</v>
+        <v>10</v>
+      </c>
+      <c r="H257" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B258" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>134</v>
+        <v>214</v>
       </c>
       <c r="D258" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E258" s="1">
         <v>3</v>
@@ -8148,21 +8139,24 @@
         <v>9</v>
       </c>
       <c r="G258" t="s">
-        <v>503</v>
+        <v>500</v>
+      </c>
+      <c r="H258" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B259" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>215</v>
+        <v>21</v>
       </c>
       <c r="D259" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E259" s="1">
         <v>3</v>
@@ -8171,24 +8165,21 @@
         <v>9</v>
       </c>
       <c r="G259" t="s">
-        <v>10</v>
-      </c>
-      <c r="H259" t="s">
-        <v>524</v>
+        <v>501</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B260" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>216</v>
+        <v>22</v>
       </c>
       <c r="D260" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="E260" s="1">
         <v>3</v>
@@ -8197,53 +8188,50 @@
         <v>9</v>
       </c>
       <c r="G260" t="s">
-        <v>503</v>
-      </c>
-      <c r="H260" t="s">
-        <v>524</v>
+        <v>10</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B261" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>21</v>
+        <v>215</v>
       </c>
       <c r="D261" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E261" s="1">
         <v>3</v>
       </c>
       <c r="F261" t="s">
-        <v>9</v>
+        <v>498</v>
       </c>
       <c r="G261" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B262" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>22</v>
+        <v>216</v>
       </c>
       <c r="D262" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="E262" s="1">
         <v>3</v>
       </c>
       <c r="F262" t="s">
-        <v>9</v>
+        <v>498</v>
       </c>
       <c r="G262" t="s">
         <v>10</v>
@@ -8251,45 +8239,45 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B263" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D263" t="s">
-        <v>467</v>
+      <c r="D263" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="E263" s="1">
         <v>3</v>
       </c>
       <c r="F263" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G263" t="s">
-        <v>503</v>
+        <v>10</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B264" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D264" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E264" s="1">
         <v>3</v>
       </c>
       <c r="F264" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G264" t="s">
         <v>10</v>
@@ -8297,22 +8285,22 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B265" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D265" s="1" t="s">
-        <v>469</v>
+      <c r="D265" t="s">
+        <v>468</v>
       </c>
       <c r="E265" s="1">
         <v>3</v>
       </c>
       <c r="F265" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G265" t="s">
         <v>10</v>
@@ -8320,146 +8308,146 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B266" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>220</v>
       </c>
       <c r="D266" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E266" s="1">
         <v>3</v>
       </c>
       <c r="F266" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G266" t="s">
-        <v>10</v>
+        <v>500</v>
+      </c>
+      <c r="H266" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B267" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>221</v>
       </c>
       <c r="D267" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E267" s="1">
         <v>3</v>
       </c>
       <c r="F267" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G267" t="s">
-        <v>10</v>
+        <v>500</v>
+      </c>
+      <c r="H267" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B268" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>222</v>
       </c>
       <c r="D268" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E268" s="1">
         <v>3</v>
       </c>
       <c r="F268" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G268" t="s">
-        <v>503</v>
+        <v>10</v>
       </c>
       <c r="H268" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B269" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>223</v>
+        <v>63</v>
       </c>
       <c r="D269" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="E269" s="1">
         <v>3</v>
       </c>
       <c r="F269" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G269" t="s">
-        <v>503</v>
-      </c>
-      <c r="H269" t="s">
-        <v>531</v>
+        <v>10</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B270" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D270" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E270" s="1">
         <v>3</v>
       </c>
       <c r="F270" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G270" t="s">
         <v>10</v>
       </c>
-      <c r="H270" t="s">
-        <v>531</v>
-      </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B271" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>63</v>
+        <v>224</v>
       </c>
       <c r="D271" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="E271" s="1">
         <v>3</v>
       </c>
       <c r="F271" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G271" t="s">
         <v>10</v>
@@ -8467,22 +8455,22 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B272" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>225</v>
       </c>
       <c r="D272" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E272" s="1">
         <v>3</v>
       </c>
       <c r="F272" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G272" t="s">
         <v>10</v>
@@ -8490,186 +8478,186 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B273" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>226</v>
+        <v>42</v>
       </c>
       <c r="D273" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E273" s="1">
         <v>3</v>
       </c>
       <c r="F273" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G273" t="s">
-        <v>10</v>
+        <v>500</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B274" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>227</v>
+        <v>167</v>
       </c>
       <c r="D274" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E274" s="1">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="F274" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G274" t="s">
-        <v>10</v>
+        <v>500</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B275" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="D275" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E275" s="1">
         <v>3</v>
       </c>
       <c r="F275" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G275" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B276" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>167</v>
+        <v>226</v>
       </c>
       <c r="D276" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="E276" s="1">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="F276" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G276" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B277" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>168</v>
+        <v>227</v>
       </c>
       <c r="D277" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E277" s="1">
         <v>3</v>
       </c>
       <c r="F277" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G277" t="s">
-        <v>503</v>
+        <v>500</v>
+      </c>
+      <c r="H277" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B278" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>228</v>
+        <v>43</v>
       </c>
       <c r="D278" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="E278" s="1">
         <v>3</v>
       </c>
       <c r="F278" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G278" t="s">
-        <v>503</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B279" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>229</v>
+        <v>46</v>
       </c>
       <c r="D279" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E279" s="1">
         <v>3</v>
       </c>
       <c r="F279" t="s">
-        <v>502</v>
+        <v>9</v>
       </c>
       <c r="G279" t="s">
-        <v>503</v>
-      </c>
-      <c r="H279" t="s">
-        <v>524</v>
+        <v>10</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B280" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D280" t="s">
-        <v>451</v>
+        <v>477</v>
       </c>
       <c r="E280" s="1">
         <v>3</v>
       </c>
       <c r="F280" t="s">
-        <v>502</v>
+        <v>9</v>
       </c>
       <c r="G280" t="s">
         <v>10</v>
@@ -8677,16 +8665,16 @@
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B281" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>46</v>
+        <v>229</v>
       </c>
       <c r="D281" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E281" s="1">
         <v>3</v>
@@ -8700,16 +8688,16 @@
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B282" t="s">
+        <v>228</v>
+      </c>
+      <c r="C282" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C282" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="D282" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E282" s="1">
         <v>3</v>
@@ -8718,21 +8706,21 @@
         <v>9</v>
       </c>
       <c r="G282" t="s">
-        <v>10</v>
+        <v>500</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B283" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>231</v>
+        <v>119</v>
       </c>
       <c r="D283" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E283" s="1">
         <v>3</v>
@@ -8746,16 +8734,16 @@
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B284" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D284" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E284" s="1">
         <v>3</v>
@@ -8764,21 +8752,21 @@
         <v>9</v>
       </c>
       <c r="G284" t="s">
-        <v>503</v>
+        <v>10</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B285" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>119</v>
+        <v>232</v>
       </c>
       <c r="D285" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E285" s="1">
         <v>3</v>
@@ -8787,21 +8775,21 @@
         <v>9</v>
       </c>
       <c r="G285" t="s">
-        <v>10</v>
+        <v>500</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B286" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>233</v>
       </c>
       <c r="D286" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E286" s="1">
         <v>3</v>
@@ -8810,21 +8798,21 @@
         <v>9</v>
       </c>
       <c r="G286" t="s">
-        <v>10</v>
+        <v>500</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B287" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>234</v>
+        <v>53</v>
       </c>
       <c r="D287" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="E287" s="1">
         <v>3</v>
@@ -8833,21 +8821,21 @@
         <v>9</v>
       </c>
       <c r="G287" t="s">
-        <v>503</v>
+        <v>10</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B288" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D288" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E288" s="1">
         <v>3</v>
@@ -8856,21 +8844,21 @@
         <v>9</v>
       </c>
       <c r="G288" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B289" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>53</v>
+        <v>235</v>
       </c>
       <c r="D289" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="E289" s="1">
         <v>3</v>
@@ -8879,21 +8867,21 @@
         <v>9</v>
       </c>
       <c r="G289" t="s">
-        <v>10</v>
+        <v>506</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B290" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>236</v>
       </c>
       <c r="D290" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E290" s="1">
         <v>3</v>
@@ -8902,21 +8890,21 @@
         <v>9</v>
       </c>
       <c r="G290" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B291" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>237</v>
       </c>
       <c r="D291" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E291" s="1">
         <v>3</v>
@@ -8925,21 +8913,21 @@
         <v>9</v>
       </c>
       <c r="G291" t="s">
-        <v>510</v>
+        <v>10</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B292" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>238</v>
+        <v>21</v>
       </c>
       <c r="D292" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E292" s="1">
         <v>3</v>
@@ -8948,21 +8936,21 @@
         <v>9</v>
       </c>
       <c r="G292" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B293" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>239</v>
+        <v>22</v>
       </c>
       <c r="D293" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="E293" s="1">
         <v>3</v>
@@ -8976,200 +8964,206 @@
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B294" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D294" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E294" s="1">
         <v>3</v>
       </c>
       <c r="F294" t="s">
-        <v>9</v>
+        <v>498</v>
       </c>
       <c r="G294" t="s">
-        <v>504</v>
+        <v>10</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B295" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>22</v>
+        <v>238</v>
       </c>
       <c r="D295" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="E295" s="1">
         <v>3</v>
       </c>
       <c r="F295" t="s">
-        <v>9</v>
+        <v>499</v>
       </c>
       <c r="G295" t="s">
-        <v>10</v>
+        <v>500</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B296" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="D296" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E296" s="1">
         <v>3</v>
       </c>
       <c r="F296" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G296" t="s">
-        <v>10</v>
+        <v>500</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B297" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>240</v>
+        <v>42</v>
       </c>
       <c r="D297" t="s">
-        <v>492</v>
+        <v>310</v>
       </c>
       <c r="E297" s="1">
         <v>3</v>
       </c>
       <c r="F297" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G297" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B298" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D298" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E298" s="1">
         <v>3</v>
       </c>
       <c r="F298" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G298" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B299" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D299" t="s">
-        <v>312</v>
+        <v>477</v>
       </c>
       <c r="E299" s="1">
         <v>3</v>
       </c>
       <c r="F299" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G299" t="s">
-        <v>503</v>
+        <v>10</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B300" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>167</v>
+        <v>239</v>
       </c>
       <c r="D300" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E300" s="1">
         <v>3</v>
       </c>
       <c r="F300" t="s">
-        <v>502</v>
+        <v>9</v>
       </c>
       <c r="G300" t="s">
-        <v>514</v>
+        <v>500</v>
+      </c>
+      <c r="H300" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B301" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>43</v>
+        <v>241</v>
       </c>
       <c r="D301" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="E301" s="1">
         <v>3</v>
       </c>
       <c r="F301" t="s">
-        <v>502</v>
+        <v>9</v>
       </c>
       <c r="G301" t="s">
         <v>10</v>
       </c>
+      <c r="H301" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B302" t="s">
+        <v>240</v>
+      </c>
+      <c r="C302" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C302" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="D302" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E302" s="1">
         <v>3</v>
@@ -9178,24 +9172,24 @@
         <v>9</v>
       </c>
       <c r="G302" t="s">
-        <v>503</v>
+        <v>10</v>
       </c>
       <c r="H302" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B303" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>243</v>
       </c>
       <c r="D303" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E303" s="1">
         <v>3</v>
@@ -9207,21 +9201,21 @@
         <v>10</v>
       </c>
       <c r="H303" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B304" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>244</v>
       </c>
       <c r="D304" t="s">
-        <v>497</v>
+        <v>298</v>
       </c>
       <c r="E304" s="1">
         <v>3</v>
@@ -9230,24 +9224,21 @@
         <v>9</v>
       </c>
       <c r="G304" t="s">
-        <v>10</v>
-      </c>
-      <c r="H304" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B305" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>245</v>
       </c>
       <c r="D305" t="s">
-        <v>498</v>
+        <v>298</v>
       </c>
       <c r="E305" s="1">
         <v>3</v>
@@ -9256,24 +9247,21 @@
         <v>9</v>
       </c>
       <c r="G305" t="s">
-        <v>10</v>
-      </c>
-      <c r="H305" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B306" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>246</v>
       </c>
       <c r="D306" t="s">
-        <v>300</v>
+        <v>496</v>
       </c>
       <c r="E306" s="1">
         <v>3</v>
@@ -9282,122 +9270,76 @@
         <v>9</v>
       </c>
       <c r="G306" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B307" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C307" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D307" t="s">
+        <v>497</v>
+      </c>
+      <c r="E307" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F307" t="s">
+        <v>9</v>
+      </c>
+      <c r="G307" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>249</v>
+      </c>
+      <c r="B308" t="s">
         <v>247</v>
       </c>
-      <c r="D307" t="s">
-        <v>300</v>
-      </c>
-      <c r="E307" s="1">
-        <v>3</v>
-      </c>
-      <c r="F307" t="s">
-        <v>9</v>
-      </c>
-      <c r="G307" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
-        <v>252</v>
-      </c>
-      <c r="B308" t="s">
-        <v>242</v>
-      </c>
       <c r="C308" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D308" t="s">
+        <v>454</v>
+      </c>
+      <c r="E308" s="1">
+        <v>3</v>
+      </c>
+      <c r="F308" t="s">
+        <v>9</v>
+      </c>
+      <c r="G308" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>249</v>
+      </c>
+      <c r="B309" t="s">
+        <v>247</v>
+      </c>
+      <c r="C309" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D308" t="s">
-        <v>499</v>
-      </c>
-      <c r="E308" s="1">
-        <v>3</v>
-      </c>
-      <c r="F308" t="s">
-        <v>9</v>
-      </c>
-      <c r="G308" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
-        <v>252</v>
-      </c>
-      <c r="B309" t="s">
-        <v>242</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D309" t="s">
-        <v>500</v>
+        <v>454</v>
       </c>
       <c r="E309" s="1">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="F309" t="s">
         <v>9</v>
       </c>
       <c r="G309" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
-        <v>251</v>
-      </c>
-      <c r="B310" t="s">
-        <v>249</v>
-      </c>
-      <c r="C310" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D310" t="s">
-        <v>457</v>
-      </c>
-      <c r="E310" s="1">
-        <v>3</v>
-      </c>
-      <c r="F310" t="s">
-        <v>9</v>
-      </c>
-      <c r="G310" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
-        <v>251</v>
-      </c>
-      <c r="B311" t="s">
-        <v>249</v>
-      </c>
-      <c r="C311" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D311" t="s">
-        <v>457</v>
-      </c>
-      <c r="E311" s="1">
-        <v>3</v>
-      </c>
-      <c r="F311" t="s">
-        <v>9</v>
-      </c>
-      <c r="G311" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/CourseSchedulingSystem/Resources/Fixtures/Courses.xlsx
+++ b/CourseSchedulingSystem/Resources/Fixtures/Courses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CourseSchedulingSystem\CourseSchedulingSystem\Resources\Fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B1CA4B-7CBA-4D0D-9F42-5B4DA1DCDDEF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD78D0A-3C71-4DB0-8DEA-6D415B6A3D97}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2EEABFC3-DDD5-4F52-B413-E6F3168BE135}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2EEABFC3-DDD5-4F52-B413-E6F3168BE135}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1925" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="550">
   <si>
     <t>Subject</t>
   </si>
@@ -1618,6 +1618,69 @@
   </si>
   <si>
     <t>Field Studies, Independent Study/Research, Practicum/Cooperative edu</t>
+  </si>
+  <si>
+    <t>Programming Tools (1:0:2)</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>Web Programming (3)</t>
+  </si>
+  <si>
+    <t>Digital Culture and Society (3)</t>
+  </si>
+  <si>
+    <t>349X</t>
+  </si>
+  <si>
+    <t>Economics of Poverty and Inequality (3)</t>
+  </si>
+  <si>
+    <t>595X</t>
+  </si>
+  <si>
+    <t>Marketing Strategy Planning and Implementation (3)</t>
+  </si>
+  <si>
+    <t>111X</t>
+  </si>
+  <si>
+    <t>Acct Mentorship Prof Devel Pgm 1 (0:3:0)</t>
+  </si>
+  <si>
+    <t>211X</t>
+  </si>
+  <si>
+    <t>Acct Mentorship Prof Devel Program 2 (0:3:0)</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>JavaScript Programming (1)</t>
+  </si>
+  <si>
+    <t>Information Systems Internship (3:0:3)</t>
+  </si>
+  <si>
+    <t>347</t>
+  </si>
+  <si>
+    <t>Seminar on Current Economic Issues (3)</t>
+  </si>
+  <si>
+    <t>341H</t>
+  </si>
+  <si>
+    <t>385H</t>
+  </si>
+  <si>
+    <t>387H</t>
+  </si>
+  <si>
+    <t>485H</t>
   </si>
 </sst>
 </file>
@@ -1685,8 +1748,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B32C3046-1ADE-4CBA-BBF8-AA780DD5DC7D}" name="Table1" displayName="Table1" ref="A1:H309" totalsRowShown="0">
-  <autoFilter ref="A1:H309" xr:uid="{07C7D2AE-645C-46EA-A539-E4AD8AA6267D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B32C3046-1ADE-4CBA-BBF8-AA780DD5DC7D}" name="Table1" displayName="Table1" ref="A1:H323" totalsRowShown="0">
+  <autoFilter ref="A1:H323" xr:uid="{07C7D2AE-645C-46EA-A539-E4AD8AA6267D}"/>
   <tableColumns count="8">
     <tableColumn id="21" xr3:uid="{FFA873AB-E9A1-4E67-99C4-7450A3C8D445}" name="Department"/>
     <tableColumn id="1" xr3:uid="{0F1E7D4A-B8F9-444F-826C-D4CAB9A8879E}" name="Subject"/>
@@ -1998,10 +2061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F8E37D-7DCC-4752-9B52-9CEB0B60F50E}">
-  <dimension ref="A1:H309"/>
+  <dimension ref="A1:H323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="C304" sqref="C304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2049,11 +2112,11 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2">
-        <v>199</v>
+      <c r="C2" s="2" t="s">
+        <v>537</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>538</v>
       </c>
       <c r="E2" s="1">
         <v>3</v>
@@ -2062,7 +2125,7 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>508</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2073,10 +2136,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="2">
-        <v>280</v>
+        <v>199</v>
       </c>
       <c r="D3" t="s">
-        <v>262</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1">
         <v>3</v>
@@ -2085,7 +2148,7 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2095,11 +2158,11 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2">
-        <v>281</v>
+      <c r="C4" s="2" t="s">
+        <v>539</v>
       </c>
       <c r="D4" t="s">
-        <v>263</v>
+        <v>540</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -2108,7 +2171,7 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2118,11 +2181,11 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
+      <c r="C5" s="2">
+        <v>280</v>
       </c>
       <c r="D5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
@@ -2141,11 +2204,11 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
+      <c r="C6" s="2">
+        <v>281</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>263</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
@@ -2154,7 +2217,7 @@
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2165,10 +2228,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E7" s="1">
         <v>3</v>
@@ -2188,10 +2251,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>264</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
@@ -2200,7 +2263,7 @@
         <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2211,10 +2274,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
@@ -2234,10 +2297,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E10" s="1">
         <v>3</v>
@@ -2257,10 +2320,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E11" s="1">
         <v>3</v>
@@ -2280,10 +2343,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E12" s="1">
         <v>3</v>
@@ -2303,10 +2366,10 @@
         <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E13" s="1">
         <v>3</v>
@@ -2326,10 +2389,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E14" s="1">
         <v>3</v>
@@ -2338,7 +2401,7 @@
         <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2349,10 +2412,10 @@
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>268</v>
       </c>
       <c r="E15" s="1">
         <v>3</v>
@@ -2361,7 +2424,7 @@
         <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>10</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2372,19 +2435,19 @@
         <v>7</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="E16" s="1">
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>498</v>
+        <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2395,19 +2458,19 @@
         <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>270</v>
+        <v>8</v>
       </c>
       <c r="E17" s="1">
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>498</v>
+        <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2418,10 +2481,10 @@
         <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="E18" s="1">
         <v>3</v>
@@ -2441,10 +2504,10 @@
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E19" s="1">
         <v>3</v>
@@ -2464,10 +2527,10 @@
         <v>7</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E20" s="1">
         <v>3</v>
@@ -2487,10 +2550,10 @@
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E21" s="1">
         <v>3</v>
@@ -2510,10 +2573,10 @@
         <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E22" s="1">
         <v>3</v>
@@ -2533,10 +2596,10 @@
         <v>7</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E23" s="1">
         <v>3</v>
@@ -2556,10 +2619,10 @@
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E24" s="1">
         <v>3</v>
@@ -2579,10 +2642,10 @@
         <v>7</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>276</v>
       </c>
       <c r="E25" s="1">
         <v>3</v>
@@ -2591,7 +2654,7 @@
         <v>498</v>
       </c>
       <c r="G25" t="s">
-        <v>10</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2602,16 +2665,16 @@
         <v>7</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E26" s="1">
         <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G26" t="s">
         <v>500</v>
@@ -2625,22 +2688,19 @@
         <v>7</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>279</v>
+        <v>8</v>
       </c>
       <c r="E27" s="1">
         <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G27" t="s">
-        <v>500</v>
-      </c>
-      <c r="H27" t="s">
-        <v>519</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2651,10 +2711,10 @@
         <v>7</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E28" s="1">
         <v>3</v>
@@ -2674,10 +2734,10 @@
         <v>7</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>252</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E29" s="1">
         <v>3</v>
@@ -2688,6 +2748,9 @@
       <c r="G29" t="s">
         <v>500</v>
       </c>
+      <c r="H29" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -2697,10 +2760,10 @@
         <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E30" s="1">
         <v>3</v>
@@ -2720,19 +2783,19 @@
         <v>7</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>37</v>
+        <v>252</v>
       </c>
       <c r="D31" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F31" t="s">
         <v>499</v>
       </c>
       <c r="G31" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2743,19 +2806,19 @@
         <v>7</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E32" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F32" t="s">
         <v>499</v>
       </c>
       <c r="G32" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2766,10 +2829,10 @@
         <v>7</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>285</v>
+        <v>37</v>
+      </c>
+      <c r="D33" t="s">
+        <v>283</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
@@ -2789,10 +2852,10 @@
         <v>7</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -2812,19 +2875,19 @@
         <v>7</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" t="s">
-        <v>287</v>
+        <v>39</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>285</v>
       </c>
       <c r="E35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="s">
         <v>499</v>
       </c>
       <c r="G35" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2835,19 +2898,19 @@
         <v>7</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D36" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E36" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F36" t="s">
         <v>499</v>
       </c>
       <c r="G36" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2858,13 +2921,13 @@
         <v>7</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>8</v>
+        <v>287</v>
       </c>
       <c r="E37" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37" t="s">
         <v>499</v>
@@ -2875,45 +2938,45 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E38" s="1">
         <v>3</v>
       </c>
       <c r="F38" t="s">
-        <v>9</v>
+        <v>499</v>
       </c>
       <c r="G38" t="s">
-        <v>10</v>
+        <v>500</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D39" t="s">
-        <v>290</v>
+        <v>8</v>
       </c>
       <c r="E39" s="1">
         <v>3</v>
       </c>
       <c r="F39" t="s">
-        <v>9</v>
+        <v>499</v>
       </c>
       <c r="G39" t="s">
         <v>500</v>
@@ -2927,10 +2990,10 @@
         <v>47</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D40" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="E40" s="1">
         <v>3</v>
@@ -2950,10 +3013,10 @@
         <v>47</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D41" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E41" s="1">
         <v>3</v>
@@ -2973,10 +3036,10 @@
         <v>47</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D42" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="E42" s="1">
         <v>3</v>
@@ -2985,7 +3048,7 @@
         <v>9</v>
       </c>
       <c r="G42" t="s">
-        <v>500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2996,10 +3059,10 @@
         <v>47</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="D43" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="E43" s="1">
         <v>3</v>
@@ -3008,7 +3071,7 @@
         <v>9</v>
       </c>
       <c r="G43" t="s">
-        <v>10</v>
+        <v>500</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -3019,19 +3082,19 @@
         <v>47</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>255</v>
+        <v>49</v>
       </c>
       <c r="D44" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="E44" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F44" t="s">
         <v>9</v>
       </c>
       <c r="G44" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -3042,19 +3105,19 @@
         <v>47</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E45" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
       </c>
       <c r="G45" t="s">
-        <v>504</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -3065,13 +3128,13 @@
         <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>51</v>
+        <v>255</v>
       </c>
       <c r="D46" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E46" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
         <v>9</v>
@@ -3088,19 +3151,19 @@
         <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D47" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E47" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F47" t="s">
         <v>9</v>
       </c>
       <c r="G47" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -3111,10 +3174,10 @@
         <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D48" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E48" s="1">
         <v>3</v>
@@ -3123,7 +3186,7 @@
         <v>9</v>
       </c>
       <c r="G48" t="s">
-        <v>10</v>
+        <v>504</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -3134,10 +3197,10 @@
         <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D49" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="E49" s="1">
         <v>3</v>
@@ -3146,7 +3209,7 @@
         <v>9</v>
       </c>
       <c r="G49" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -3157,10 +3220,10 @@
         <v>47</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D50" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E50" s="1">
         <v>3</v>
@@ -3169,7 +3232,7 @@
         <v>9</v>
       </c>
       <c r="G50" t="s">
-        <v>528</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -3180,10 +3243,10 @@
         <v>47</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D51" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E51" s="1">
         <v>3</v>
@@ -3192,7 +3255,7 @@
         <v>9</v>
       </c>
       <c r="G51" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -3203,10 +3266,10 @@
         <v>47</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="E52" s="1">
         <v>3</v>
@@ -3215,7 +3278,7 @@
         <v>9</v>
       </c>
       <c r="G52" t="s">
-        <v>506</v>
+        <v>528</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -3226,10 +3289,10 @@
         <v>47</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="D53" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E53" s="1">
         <v>3</v>
@@ -3238,7 +3301,7 @@
         <v>9</v>
       </c>
       <c r="G53" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -3249,10 +3312,10 @@
         <v>47</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D54" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E54" s="1">
         <v>3</v>
@@ -3261,7 +3324,7 @@
         <v>9</v>
       </c>
       <c r="G54" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -3272,10 +3335,10 @@
         <v>47</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D55" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="E55" s="1">
         <v>3</v>
@@ -3284,7 +3347,7 @@
         <v>9</v>
       </c>
       <c r="G55" t="s">
-        <v>10</v>
+        <v>507</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -3295,19 +3358,19 @@
         <v>47</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="D56" t="s">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="E56" s="1">
         <v>3</v>
       </c>
       <c r="F56" t="s">
-        <v>498</v>
+        <v>9</v>
       </c>
       <c r="G56" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3318,19 +3381,19 @@
         <v>47</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="D57" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="E57" s="1">
         <v>3</v>
       </c>
       <c r="F57" t="s">
-        <v>498</v>
+        <v>9</v>
       </c>
       <c r="G57" t="s">
-        <v>500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -3341,10 +3404,10 @@
         <v>47</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="D58" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="E58" s="1">
         <v>3</v>
@@ -3364,10 +3427,10 @@
         <v>47</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D59" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E59" s="1">
         <v>3</v>
@@ -3376,7 +3439,7 @@
         <v>498</v>
       </c>
       <c r="G59" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -3387,10 +3450,10 @@
         <v>47</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D60" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E60" s="1">
         <v>3</v>
@@ -3399,7 +3462,7 @@
         <v>498</v>
       </c>
       <c r="G60" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -3410,10 +3473,10 @@
         <v>47</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D61" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E61" s="1">
         <v>3</v>
@@ -3422,7 +3485,7 @@
         <v>498</v>
       </c>
       <c r="G61" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -3433,10 +3496,10 @@
         <v>47</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D62" t="s">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="E62" s="1">
         <v>3</v>
@@ -3445,7 +3508,7 @@
         <v>498</v>
       </c>
       <c r="G62" t="s">
-        <v>10</v>
+        <v>509</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -3456,19 +3519,19 @@
         <v>47</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D63" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="E63" s="1">
         <v>3</v>
       </c>
       <c r="F63" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G63" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -3479,19 +3542,19 @@
         <v>47</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D64" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="E64" s="1">
         <v>3</v>
       </c>
       <c r="F64" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G64" t="s">
-        <v>505</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -3502,10 +3565,10 @@
         <v>47</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D65" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="E65" s="1">
         <v>3</v>
@@ -3514,7 +3577,7 @@
         <v>499</v>
       </c>
       <c r="G65" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -3525,10 +3588,10 @@
         <v>47</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D66" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E66" s="1">
         <v>3</v>
@@ -3537,7 +3600,7 @@
         <v>499</v>
       </c>
       <c r="G66" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -3548,10 +3611,10 @@
         <v>47</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D67" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="E67" s="1">
         <v>3</v>
@@ -3560,7 +3623,7 @@
         <v>499</v>
       </c>
       <c r="G67" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -3571,10 +3634,10 @@
         <v>47</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D68" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E68" s="1">
         <v>3</v>
@@ -3594,10 +3657,10 @@
         <v>47</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D69" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="E69" s="1">
         <v>3</v>
@@ -3617,10 +3680,10 @@
         <v>47</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D70" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E70" s="1">
         <v>3</v>
@@ -3640,10 +3703,10 @@
         <v>47</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D71" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E71" s="1">
         <v>3</v>
@@ -3663,10 +3726,10 @@
         <v>47</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D72" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E72" s="1">
         <v>3</v>
@@ -3686,10 +3749,10 @@
         <v>47</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D73" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E73" s="1">
         <v>3</v>
@@ -3709,10 +3772,10 @@
         <v>47</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D74" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E74" s="1">
         <v>3</v>
@@ -3732,10 +3795,10 @@
         <v>47</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D75" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E75" s="1">
         <v>3</v>
@@ -3755,10 +3818,10 @@
         <v>47</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D76" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E76" s="1">
         <v>3</v>
@@ -3778,10 +3841,10 @@
         <v>47</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D77" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E77" s="1">
         <v>3</v>
@@ -3801,10 +3864,10 @@
         <v>47</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D78" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E78" s="1">
         <v>3</v>
@@ -3824,10 +3887,10 @@
         <v>47</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D79" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E79" s="1">
         <v>3</v>
@@ -3847,10 +3910,10 @@
         <v>47</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D80" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E80" s="1">
         <v>3</v>
@@ -3870,10 +3933,10 @@
         <v>47</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D81" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E81" s="1">
         <v>3</v>
@@ -3893,10 +3956,10 @@
         <v>47</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D82" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E82" s="1">
         <v>3</v>
@@ -3916,10 +3979,10 @@
         <v>47</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="D83" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E83" s="1">
         <v>3</v>
@@ -3928,7 +3991,7 @@
         <v>499</v>
       </c>
       <c r="G83" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -3939,10 +4002,10 @@
         <v>47</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D84" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E84" s="1">
         <v>3</v>
@@ -3951,7 +4014,7 @@
         <v>499</v>
       </c>
       <c r="G84" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -3962,10 +4025,10 @@
         <v>47</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="D85" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E85" s="1">
         <v>3</v>
@@ -3974,7 +4037,7 @@
         <v>499</v>
       </c>
       <c r="G85" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -3985,10 +4048,10 @@
         <v>47</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="D86" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E86" s="1">
         <v>3</v>
@@ -3997,59 +4060,53 @@
         <v>499</v>
       </c>
       <c r="G86" t="s">
-        <v>10</v>
+        <v>505</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B87" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D87" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E87" s="1">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="F87" t="s">
-        <v>9</v>
+        <v>499</v>
       </c>
       <c r="G87" t="s">
-        <v>500</v>
-      </c>
-      <c r="H87" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B88" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="D88" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E88" s="1">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="F88" t="s">
-        <v>9</v>
+        <v>499</v>
       </c>
       <c r="G88" t="s">
-        <v>502</v>
-      </c>
-      <c r="H88" t="s">
-        <v>520</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -4060,19 +4117,19 @@
         <v>86</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D89" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E89" s="1">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="F89" t="s">
         <v>9</v>
       </c>
       <c r="G89" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H89" t="s">
         <v>520</v>
@@ -4086,10 +4143,10 @@
         <v>86</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D90" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E90" s="1">
         <v>0.5</v>
@@ -4112,10 +4169,10 @@
         <v>86</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D91" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E91" s="1">
         <v>0.5</v>
@@ -4138,10 +4195,10 @@
         <v>86</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D92" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E92" s="1">
         <v>0.5</v>
@@ -4164,19 +4221,19 @@
         <v>86</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D93" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E93" s="1">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="F93" t="s">
         <v>9</v>
       </c>
       <c r="G93" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H93" t="s">
         <v>520</v>
@@ -4190,10 +4247,10 @@
         <v>86</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D94" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E94" s="1">
         <v>0.5</v>
@@ -4216,19 +4273,19 @@
         <v>86</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D95" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E95" s="1">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="F95" t="s">
         <v>9</v>
       </c>
       <c r="G95" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="H95" t="s">
         <v>520</v>
@@ -4242,10 +4299,10 @@
         <v>86</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D96" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E96" s="1">
         <v>0.5</v>
@@ -4254,7 +4311,7 @@
         <v>9</v>
       </c>
       <c r="G96" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="H96" t="s">
         <v>520</v>
@@ -4268,19 +4325,22 @@
         <v>86</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D97" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E97" s="1">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="F97" t="s">
         <v>9</v>
       </c>
       <c r="G97" t="s">
-        <v>512</v>
+        <v>511</v>
+      </c>
+      <c r="H97" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -4291,19 +4351,19 @@
         <v>86</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D98" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E98" s="1">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="F98" t="s">
         <v>9</v>
       </c>
       <c r="G98" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="H98" t="s">
         <v>520</v>
@@ -4317,22 +4377,19 @@
         <v>86</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D99" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E99" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F99" t="s">
         <v>9</v>
       </c>
       <c r="G99" t="s">
-        <v>500</v>
-      </c>
-      <c r="H99" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -4343,10 +4400,10 @@
         <v>86</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="D100" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E100" s="1">
         <v>3</v>
@@ -4356,6 +4413,9 @@
       </c>
       <c r="G100" t="s">
         <v>500</v>
+      </c>
+      <c r="H100" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -4366,13 +4426,13 @@
         <v>86</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D101" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E101" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F101" t="s">
         <v>9</v>
@@ -4392,22 +4452,19 @@
         <v>86</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="D102" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E102" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F102" t="s">
         <v>9</v>
       </c>
       <c r="G102" t="s">
         <v>500</v>
-      </c>
-      <c r="H102" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -4418,10 +4475,10 @@
         <v>86</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D103" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E103" s="1">
         <v>4</v>
@@ -4433,7 +4490,7 @@
         <v>500</v>
       </c>
       <c r="H103" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -4444,10 +4501,10 @@
         <v>86</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D104" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E104" s="1">
         <v>4</v>
@@ -4459,7 +4516,7 @@
         <v>500</v>
       </c>
       <c r="H104" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -4470,13 +4527,13 @@
         <v>86</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D105" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E105" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F105" t="s">
         <v>9</v>
@@ -4496,13 +4553,13 @@
         <v>86</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D106" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E106" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F106" t="s">
         <v>9</v>
@@ -4522,22 +4579,19 @@
         <v>86</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>106</v>
+        <v>244</v>
       </c>
       <c r="D107" t="s">
-        <v>341</v>
+        <v>529</v>
       </c>
       <c r="E107" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F107" t="s">
         <v>9</v>
       </c>
       <c r="G107" t="s">
-        <v>513</v>
-      </c>
-      <c r="H107" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -4548,10 +4602,10 @@
         <v>86</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D108" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E108" s="1">
         <v>3</v>
@@ -4560,7 +4614,7 @@
         <v>9</v>
       </c>
       <c r="G108" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="H108" t="s">
         <v>521</v>
@@ -4574,10 +4628,10 @@
         <v>86</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D109" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E109" s="1">
         <v>3</v>
@@ -4600,10 +4654,10 @@
         <v>86</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D110" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E110" s="1">
         <v>3</v>
@@ -4612,7 +4666,7 @@
         <v>9</v>
       </c>
       <c r="G110" t="s">
-        <v>10</v>
+        <v>513</v>
       </c>
       <c r="H110" t="s">
         <v>521</v>
@@ -4626,19 +4680,19 @@
         <v>86</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D111" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E111" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F111" t="s">
         <v>9</v>
       </c>
       <c r="G111" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="H111" t="s">
         <v>521</v>
@@ -4652,22 +4706,19 @@
         <v>86</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>111</v>
+        <v>530</v>
       </c>
       <c r="D112" t="s">
-        <v>346</v>
+        <v>531</v>
       </c>
       <c r="E112" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F112" t="s">
         <v>9</v>
       </c>
       <c r="G112" t="s">
         <v>500</v>
-      </c>
-      <c r="H112" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -4678,13 +4729,13 @@
         <v>86</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D113" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E113" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F113" t="s">
         <v>9</v>
@@ -4704,10 +4755,10 @@
         <v>86</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="D114" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E114" s="1">
         <v>3</v>
@@ -4717,6 +4768,9 @@
       </c>
       <c r="G114" t="s">
         <v>10</v>
+      </c>
+      <c r="H114" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -4727,22 +4781,19 @@
         <v>86</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>113</v>
+        <v>541</v>
       </c>
       <c r="D115" t="s">
-        <v>349</v>
+        <v>542</v>
       </c>
       <c r="E115" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F115" t="s">
         <v>9</v>
       </c>
       <c r="G115" t="s">
         <v>500</v>
-      </c>
-      <c r="H115" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -4753,13 +4804,13 @@
         <v>86</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D116" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E116" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F116" t="s">
         <v>9</v>
@@ -4768,7 +4819,7 @@
         <v>500</v>
       </c>
       <c r="H116" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -4779,13 +4830,13 @@
         <v>86</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D117" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E117" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F117" t="s">
         <v>9</v>
@@ -4794,7 +4845,7 @@
         <v>500</v>
       </c>
       <c r="H117" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -4805,13 +4856,13 @@
         <v>86</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D118" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E118" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F118" t="s">
         <v>9</v>
@@ -4831,10 +4882,10 @@
         <v>86</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="D119" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E119" s="1">
         <v>3</v>
@@ -4843,7 +4894,7 @@
         <v>9</v>
       </c>
       <c r="G119" t="s">
-        <v>500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -4854,10 +4905,10 @@
         <v>86</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D120" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E120" s="1">
         <v>3</v>
@@ -4880,10 +4931,10 @@
         <v>86</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D121" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E121" s="1">
         <v>3</v>
@@ -4895,7 +4946,7 @@
         <v>500</v>
       </c>
       <c r="H121" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -4906,13 +4957,13 @@
         <v>86</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D122" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E122" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F122" t="s">
         <v>9</v>
@@ -4921,7 +4972,7 @@
         <v>500</v>
       </c>
       <c r="H122" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -4932,13 +4983,13 @@
         <v>86</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D123" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E123" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F123" t="s">
         <v>9</v>
@@ -4958,10 +5009,10 @@
         <v>86</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="D124" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E124" s="1">
         <v>3</v>
@@ -4981,10 +5032,10 @@
         <v>86</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="D125" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E125" s="1">
         <v>3</v>
@@ -5007,10 +5058,10 @@
         <v>86</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D126" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E126" s="1">
         <v>3</v>
@@ -5033,13 +5084,13 @@
         <v>86</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D127" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E127" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F127" t="s">
         <v>9</v>
@@ -5059,13 +5110,13 @@
         <v>86</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D128" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E128" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F128" t="s">
         <v>9</v>
@@ -5085,10 +5136,10 @@
         <v>86</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="D129" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E129" s="1">
         <v>3</v>
@@ -5098,9 +5149,6 @@
       </c>
       <c r="G129" t="s">
         <v>500</v>
-      </c>
-      <c r="H129" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -5111,10 +5159,10 @@
         <v>86</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="D130" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E130" s="1">
         <v>3</v>
@@ -5137,10 +5185,10 @@
         <v>86</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D131" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E131" s="1">
         <v>3</v>
@@ -5163,10 +5211,10 @@
         <v>86</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D132" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E132" s="1">
         <v>3</v>
@@ -5189,10 +5237,10 @@
         <v>86</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D133" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E133" s="1">
         <v>3</v>
@@ -5215,10 +5263,10 @@
         <v>86</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D134" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E134" s="1">
         <v>3</v>
@@ -5227,7 +5275,10 @@
         <v>9</v>
       </c>
       <c r="G134" t="s">
-        <v>10</v>
+        <v>500</v>
+      </c>
+      <c r="H134" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -5238,10 +5289,10 @@
         <v>86</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D135" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E135" s="1">
         <v>3</v>
@@ -5264,10 +5315,10 @@
         <v>86</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D136" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E136" s="1">
         <v>3</v>
@@ -5277,6 +5328,9 @@
       </c>
       <c r="G136" t="s">
         <v>500</v>
+      </c>
+      <c r="H136" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -5287,10 +5341,10 @@
         <v>86</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D137" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E137" s="1">
         <v>3</v>
@@ -5313,10 +5367,10 @@
         <v>86</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D138" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E138" s="1">
         <v>3</v>
@@ -5328,7 +5382,7 @@
         <v>500</v>
       </c>
       <c r="H138" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -5339,10 +5393,10 @@
         <v>86</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D139" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E139" s="1">
         <v>3</v>
@@ -5351,10 +5405,7 @@
         <v>9</v>
       </c>
       <c r="G139" t="s">
-        <v>500</v>
-      </c>
-      <c r="H139" t="s">
-        <v>523</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -5365,10 +5416,10 @@
         <v>86</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="D140" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E140" s="1">
         <v>3</v>
@@ -5377,7 +5428,7 @@
         <v>9</v>
       </c>
       <c r="G140" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H140" t="s">
         <v>521</v>
@@ -5391,10 +5442,10 @@
         <v>86</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="D141" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="E141" s="1">
         <v>3</v>
@@ -5403,7 +5454,7 @@
         <v>9</v>
       </c>
       <c r="G141" t="s">
-        <v>10</v>
+        <v>500</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -5414,16 +5465,16 @@
         <v>86</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D142" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E142" s="1">
         <v>3</v>
       </c>
       <c r="F142" t="s">
-        <v>498</v>
+        <v>9</v>
       </c>
       <c r="G142" t="s">
         <v>500</v>
@@ -5440,22 +5491,22 @@
         <v>86</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D143" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E143" s="1">
         <v>3</v>
       </c>
       <c r="F143" t="s">
-        <v>498</v>
+        <v>9</v>
       </c>
       <c r="G143" t="s">
         <v>500</v>
       </c>
       <c r="H143" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -5466,22 +5517,22 @@
         <v>86</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="D144" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E144" s="1">
         <v>3</v>
       </c>
       <c r="F144" t="s">
-        <v>498</v>
+        <v>9</v>
       </c>
       <c r="G144" t="s">
         <v>500</v>
       </c>
       <c r="H144" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -5492,19 +5543,22 @@
         <v>86</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="D145" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E145" s="1">
         <v>3</v>
       </c>
       <c r="F145" t="s">
-        <v>499</v>
+        <v>9</v>
       </c>
       <c r="G145" t="s">
-        <v>500</v>
+        <v>501</v>
+      </c>
+      <c r="H145" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -5515,19 +5569,19 @@
         <v>86</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="D146" t="s">
-        <v>375</v>
+        <v>543</v>
       </c>
       <c r="E146" s="1">
         <v>3</v>
       </c>
       <c r="F146" t="s">
-        <v>499</v>
+        <v>9</v>
       </c>
       <c r="G146" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -5538,19 +5592,19 @@
         <v>86</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D147" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="E147" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F147" t="s">
-        <v>499</v>
+        <v>9</v>
       </c>
       <c r="G147" t="s">
-        <v>500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -5561,19 +5615,22 @@
         <v>86</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="D148" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E148" s="1">
         <v>3</v>
       </c>
       <c r="F148" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G148" t="s">
         <v>500</v>
+      </c>
+      <c r="H148" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -5584,19 +5641,22 @@
         <v>86</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="D149" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="E149" s="1">
         <v>3</v>
       </c>
       <c r="F149" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G149" t="s">
         <v>500</v>
+      </c>
+      <c r="H149" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -5604,22 +5664,22 @@
         <v>250</v>
       </c>
       <c r="B150" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="D150" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="E150" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F150" t="s">
-        <v>9</v>
+        <v>498</v>
       </c>
       <c r="G150" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="H150" t="s">
         <v>521</v>
@@ -5630,25 +5690,22 @@
         <v>250</v>
       </c>
       <c r="B151" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D151" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E151" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F151" t="s">
-        <v>9</v>
+        <v>499</v>
       </c>
       <c r="G151" t="s">
-        <v>506</v>
-      </c>
-      <c r="H151" t="s">
-        <v>521</v>
+        <v>500</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -5656,22 +5713,22 @@
         <v>250</v>
       </c>
       <c r="B152" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="D152" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E152" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F152" t="s">
-        <v>9</v>
+        <v>499</v>
       </c>
       <c r="G152" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -5679,19 +5736,19 @@
         <v>250</v>
       </c>
       <c r="B153" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="D153" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E153" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F153" t="s">
-        <v>9</v>
+        <v>499</v>
       </c>
       <c r="G153" t="s">
         <v>500</v>
@@ -5702,19 +5759,19 @@
         <v>250</v>
       </c>
       <c r="B154" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="D154" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="E154" s="1">
         <v>3</v>
       </c>
       <c r="F154" t="s">
-        <v>9</v>
+        <v>499</v>
       </c>
       <c r="G154" t="s">
         <v>500</v>
@@ -5725,22 +5782,22 @@
         <v>250</v>
       </c>
       <c r="B155" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="D155" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="E155" s="1">
         <v>3</v>
       </c>
       <c r="F155" t="s">
-        <v>9</v>
+        <v>499</v>
       </c>
       <c r="G155" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -5751,19 +5808,22 @@
         <v>140</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="D156" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="E156" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F156" t="s">
         <v>9</v>
       </c>
       <c r="G156" t="s">
-        <v>510</v>
+        <v>506</v>
+      </c>
+      <c r="H156" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -5774,19 +5834,22 @@
         <v>140</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D157" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E157" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F157" t="s">
         <v>9</v>
       </c>
       <c r="G157" t="s">
-        <v>500</v>
+        <v>506</v>
+      </c>
+      <c r="H157" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -5797,36 +5860,33 @@
         <v>140</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="D158" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E158" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F158" t="s">
         <v>9</v>
       </c>
       <c r="G158" t="s">
-        <v>500</v>
-      </c>
-      <c r="H158" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>11</v>
+        <v>250</v>
       </c>
       <c r="B159" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>147</v>
+        <v>104</v>
       </c>
       <c r="D159" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E159" s="1">
         <v>3</v>
@@ -5836,23 +5896,20 @@
       </c>
       <c r="G159" t="s">
         <v>500</v>
-      </c>
-      <c r="H159" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>11</v>
+        <v>250</v>
       </c>
       <c r="B160" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="D160" t="s">
-        <v>387</v>
+        <v>532</v>
       </c>
       <c r="E160" s="1">
         <v>3</v>
@@ -5862,23 +5919,20 @@
       </c>
       <c r="G160" t="s">
         <v>500</v>
-      </c>
-      <c r="H160" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>11</v>
+        <v>250</v>
       </c>
       <c r="B161" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="D161" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="E161" s="1">
         <v>3</v>
@@ -5887,21 +5941,21 @@
         <v>9</v>
       </c>
       <c r="G161" t="s">
-        <v>10</v>
+        <v>500</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>11</v>
+        <v>250</v>
       </c>
       <c r="B162" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D162" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="E162" s="1">
         <v>3</v>
@@ -5910,50 +5964,44 @@
         <v>9</v>
       </c>
       <c r="G162" t="s">
-        <v>500</v>
-      </c>
-      <c r="H162" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>11</v>
+        <v>250</v>
       </c>
       <c r="B163" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D163" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="E163" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F163" t="s">
         <v>9</v>
       </c>
       <c r="G163" t="s">
-        <v>500</v>
-      </c>
-      <c r="H163" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>11</v>
+        <v>250</v>
       </c>
       <c r="B164" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D164" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="E164" s="1">
         <v>3</v>
@@ -5963,23 +6011,20 @@
       </c>
       <c r="G164" t="s">
         <v>500</v>
-      </c>
-      <c r="H164" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>11</v>
+        <v>250</v>
       </c>
       <c r="B165" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="D165" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="E165" s="1">
         <v>3</v>
@@ -5991,7 +6036,7 @@
         <v>500</v>
       </c>
       <c r="H165" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -6002,10 +6047,10 @@
         <v>146</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="D166" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E166" s="1">
         <v>3</v>
@@ -6014,7 +6059,10 @@
         <v>9</v>
       </c>
       <c r="G166" t="s">
-        <v>10</v>
+        <v>500</v>
+      </c>
+      <c r="H166" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -6025,10 +6073,10 @@
         <v>146</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="D167" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="E167" s="1">
         <v>3</v>
@@ -6038,6 +6086,9 @@
       </c>
       <c r="G167" t="s">
         <v>500</v>
+      </c>
+      <c r="H167" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
@@ -6048,10 +6099,10 @@
         <v>146</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>153</v>
+        <v>46</v>
       </c>
       <c r="D168" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E168" s="1">
         <v>3</v>
@@ -6060,7 +6111,7 @@
         <v>9</v>
       </c>
       <c r="G168" t="s">
-        <v>500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -6071,10 +6122,10 @@
         <v>146</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D169" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E169" s="1">
         <v>3</v>
@@ -6084,6 +6135,9 @@
       </c>
       <c r="G169" t="s">
         <v>500</v>
+      </c>
+      <c r="H169" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -6094,10 +6148,10 @@
         <v>146</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D170" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E170" s="1">
         <v>3</v>
@@ -6107,6 +6161,9 @@
       </c>
       <c r="G170" t="s">
         <v>500</v>
+      </c>
+      <c r="H170" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -6117,10 +6174,10 @@
         <v>146</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D171" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E171" s="1">
         <v>3</v>
@@ -6130,6 +6187,9 @@
       </c>
       <c r="G171" t="s">
         <v>500</v>
+      </c>
+      <c r="H171" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -6140,10 +6200,10 @@
         <v>146</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D172" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="E172" s="1">
         <v>3</v>
@@ -6153,6 +6213,9 @@
       </c>
       <c r="G172" t="s">
         <v>500</v>
+      </c>
+      <c r="H172" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -6163,10 +6226,10 @@
         <v>146</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="D173" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="E173" s="1">
         <v>3</v>
@@ -6175,10 +6238,7 @@
         <v>9</v>
       </c>
       <c r="G173" t="s">
-        <v>500</v>
-      </c>
-      <c r="H173" t="s">
-        <v>519</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -6189,10 +6249,10 @@
         <v>146</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="D174" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="E174" s="1">
         <v>3</v>
@@ -6212,10 +6272,10 @@
         <v>146</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D175" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="E175" s="1">
         <v>3</v>
@@ -6235,10 +6295,10 @@
         <v>146</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D176" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="E176" s="1">
         <v>3</v>
@@ -6250,7 +6310,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>11</v>
       </c>
@@ -6258,10 +6318,10 @@
         <v>146</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D177" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="E177" s="1">
         <v>3</v>
@@ -6273,7 +6333,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>11</v>
       </c>
@@ -6281,10 +6341,10 @@
         <v>146</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D178" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="E178" s="1">
         <v>3</v>
@@ -6296,7 +6356,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>11</v>
       </c>
@@ -6304,10 +6364,10 @@
         <v>146</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>53</v>
+        <v>157</v>
       </c>
       <c r="D179" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="E179" s="1">
         <v>3</v>
@@ -6316,10 +6376,10 @@
         <v>9</v>
       </c>
       <c r="G179" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>11</v>
       </c>
@@ -6327,10 +6387,10 @@
         <v>146</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="D180" t="s">
-        <v>316</v>
+        <v>397</v>
       </c>
       <c r="E180" s="1">
         <v>3</v>
@@ -6341,8 +6401,11 @@
       <c r="G180" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H180" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>11</v>
       </c>
@@ -6350,10 +6413,10 @@
         <v>146</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="D181" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E181" s="1">
         <v>3</v>
@@ -6362,10 +6425,10 @@
         <v>9</v>
       </c>
       <c r="G181" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>11</v>
       </c>
@@ -6373,10 +6436,10 @@
         <v>146</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D182" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E182" s="1">
         <v>3</v>
@@ -6385,10 +6448,10 @@
         <v>9</v>
       </c>
       <c r="G182" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>11</v>
       </c>
@@ -6396,10 +6459,10 @@
         <v>146</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="D183" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="E183" s="1">
         <v>3</v>
@@ -6408,10 +6471,10 @@
         <v>9</v>
       </c>
       <c r="G183" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>11</v>
       </c>
@@ -6419,22 +6482,22 @@
         <v>146</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="D184" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E184" s="1">
         <v>3</v>
       </c>
       <c r="F184" t="s">
-        <v>498</v>
+        <v>9</v>
       </c>
       <c r="G184" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>11</v>
       </c>
@@ -6442,22 +6505,22 @@
         <v>146</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>63</v>
+        <v>163</v>
       </c>
       <c r="D185" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="E185" s="1">
         <v>3</v>
       </c>
       <c r="F185" t="s">
-        <v>498</v>
+        <v>9</v>
       </c>
       <c r="G185" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>11</v>
       </c>
@@ -6465,22 +6528,22 @@
         <v>146</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>41</v>
+        <v>544</v>
       </c>
       <c r="D186" t="s">
-        <v>407</v>
+        <v>545</v>
       </c>
       <c r="E186" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F186" t="s">
-        <v>499</v>
+        <v>9</v>
       </c>
       <c r="G186" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>11</v>
       </c>
@@ -6488,22 +6551,22 @@
         <v>146</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>165</v>
+        <v>533</v>
       </c>
       <c r="D187" t="s">
-        <v>408</v>
+        <v>534</v>
       </c>
       <c r="E187" s="1">
         <v>3</v>
       </c>
       <c r="F187" t="s">
-        <v>499</v>
+        <v>9</v>
       </c>
       <c r="G187" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>11</v>
       </c>
@@ -6511,22 +6574,22 @@
         <v>146</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>166</v>
+        <v>53</v>
       </c>
       <c r="D188" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="E188" s="1">
         <v>3</v>
       </c>
       <c r="F188" t="s">
-        <v>499</v>
+        <v>9</v>
       </c>
       <c r="G188" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>11</v>
       </c>
@@ -6534,7 +6597,7 @@
         <v>146</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="D189" t="s">
         <v>316</v>
@@ -6543,13 +6606,13 @@
         <v>3</v>
       </c>
       <c r="F189" t="s">
-        <v>499</v>
+        <v>9</v>
       </c>
       <c r="G189" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>11</v>
       </c>
@@ -6557,22 +6620,22 @@
         <v>146</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>167</v>
+        <v>21</v>
       </c>
       <c r="D190" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E190" s="1">
         <v>3</v>
       </c>
       <c r="F190" t="s">
-        <v>499</v>
+        <v>9</v>
       </c>
       <c r="G190" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>11</v>
       </c>
@@ -6580,22 +6643,22 @@
         <v>146</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D191" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="E191" s="1">
         <v>3</v>
       </c>
       <c r="F191" t="s">
-        <v>499</v>
+        <v>9</v>
       </c>
       <c r="G191" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>11</v>
       </c>
@@ -6603,19 +6666,19 @@
         <v>146</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>169</v>
+        <v>22</v>
       </c>
       <c r="D192" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="E192" s="1">
         <v>3</v>
       </c>
       <c r="F192" t="s">
-        <v>499</v>
+        <v>9</v>
       </c>
       <c r="G192" t="s">
-        <v>500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -6626,85 +6689,85 @@
         <v>146</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="D193" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="E193" s="1">
         <v>3</v>
       </c>
       <c r="F193" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G193" t="s">
-        <v>10</v>
+        <v>500</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
       <c r="B194" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c r="D194" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="E194" s="1">
         <v>3</v>
       </c>
       <c r="F194" t="s">
-        <v>9</v>
+        <v>498</v>
       </c>
       <c r="G194" t="s">
-        <v>500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
       <c r="B195" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="D195" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E195" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F195" t="s">
-        <v>9</v>
+        <v>499</v>
       </c>
       <c r="G195" t="s">
-        <v>10</v>
+        <v>500</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
       <c r="B196" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D196" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="E196" s="1">
         <v>3</v>
       </c>
       <c r="F196" t="s">
-        <v>9</v>
+        <v>499</v>
       </c>
       <c r="G196" t="s">
         <v>500</v>
@@ -6712,22 +6775,22 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
       <c r="B197" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D197" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="E197" s="1">
         <v>3</v>
       </c>
       <c r="F197" t="s">
-        <v>9</v>
+        <v>499</v>
       </c>
       <c r="G197" t="s">
         <v>500</v>
@@ -6735,22 +6798,22 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
       <c r="B198" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c r="D198" t="s">
-        <v>414</v>
+        <v>316</v>
       </c>
       <c r="E198" s="1">
         <v>3</v>
       </c>
       <c r="F198" t="s">
-        <v>9</v>
+        <v>499</v>
       </c>
       <c r="G198" t="s">
         <v>500</v>
@@ -6758,71 +6821,71 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
       <c r="B199" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D199" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="E199" s="1">
         <v>3</v>
       </c>
       <c r="F199" t="s">
-        <v>9</v>
+        <v>499</v>
       </c>
       <c r="G199" t="s">
-        <v>10</v>
+        <v>500</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
       <c r="B200" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="D200" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E200" s="1">
         <v>3</v>
       </c>
       <c r="F200" t="s">
-        <v>9</v>
+        <v>499</v>
       </c>
       <c r="G200" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
       <c r="B201" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D201" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="E201" s="1">
         <v>3</v>
       </c>
       <c r="F201" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G201" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -6830,39 +6893,39 @@
         <v>11</v>
       </c>
       <c r="B202" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>179</v>
+        <v>43</v>
       </c>
       <c r="D202" t="s">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="E202" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F202" t="s">
-        <v>9</v>
+        <v>499</v>
       </c>
       <c r="G202" t="s">
-        <v>500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>11</v>
+        <v>249</v>
       </c>
       <c r="B203" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D203" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="E203" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F203" t="s">
         <v>9</v>
@@ -6873,16 +6936,16 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>11</v>
+        <v>249</v>
       </c>
       <c r="B204" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c r="D204" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="E204" s="1">
         <v>3</v>
@@ -6891,21 +6954,21 @@
         <v>9</v>
       </c>
       <c r="G204" t="s">
-        <v>500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>11</v>
+        <v>249</v>
       </c>
       <c r="B205" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="D205" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="E205" s="1">
         <v>3</v>
@@ -6919,16 +6982,16 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>11</v>
+        <v>249</v>
       </c>
       <c r="B206" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D206" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="E206" s="1">
         <v>3</v>
@@ -6942,16 +7005,16 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>11</v>
+        <v>249</v>
       </c>
       <c r="B207" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D207" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E207" s="1">
         <v>3</v>
@@ -6965,16 +7028,16 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>11</v>
+        <v>249</v>
       </c>
       <c r="B208" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="D208" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="E208" s="1">
         <v>3</v>
@@ -6983,21 +7046,21 @@
         <v>9</v>
       </c>
       <c r="G208" t="s">
-        <v>500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>11</v>
+        <v>249</v>
       </c>
       <c r="B209" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="D209" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="E209" s="1">
         <v>3</v>
@@ -7006,30 +7069,30 @@
         <v>9</v>
       </c>
       <c r="G209" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>11</v>
+        <v>249</v>
       </c>
       <c r="B210" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>53</v>
+        <v>176</v>
       </c>
       <c r="D210" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="E210" s="1">
         <v>3</v>
       </c>
       <c r="F210" t="s">
-        <v>9</v>
+        <v>498</v>
       </c>
       <c r="G210" t="s">
-        <v>10</v>
+        <v>515</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -7040,13 +7103,13 @@
         <v>178</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D211" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="E211" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F211" t="s">
         <v>9</v>
@@ -7063,19 +7126,19 @@
         <v>178</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="D212" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="E212" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F212" t="s">
         <v>9</v>
       </c>
       <c r="G212" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -7086,10 +7149,10 @@
         <v>178</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>184</v>
+        <v>104</v>
       </c>
       <c r="D213" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="E213" s="1">
         <v>3</v>
@@ -7109,10 +7172,10 @@
         <v>178</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>185</v>
+        <v>113</v>
       </c>
       <c r="D214" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="E214" s="1">
         <v>3</v>
@@ -7132,16 +7195,16 @@
         <v>178</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D215" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="E215" s="1">
         <v>3</v>
       </c>
       <c r="F215" t="s">
-        <v>498</v>
+        <v>9</v>
       </c>
       <c r="G215" t="s">
         <v>500</v>
@@ -7155,16 +7218,16 @@
         <v>178</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D216" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="E216" s="1">
         <v>3</v>
       </c>
       <c r="F216" t="s">
-        <v>498</v>
+        <v>9</v>
       </c>
       <c r="G216" t="s">
         <v>500</v>
@@ -7178,16 +7241,16 @@
         <v>178</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="D217" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E217" s="1">
         <v>3</v>
       </c>
       <c r="F217" t="s">
-        <v>498</v>
+        <v>9</v>
       </c>
       <c r="G217" t="s">
         <v>500</v>
@@ -7201,16 +7264,16 @@
         <v>178</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="D218" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="E218" s="1">
         <v>3</v>
       </c>
       <c r="F218" t="s">
-        <v>498</v>
+        <v>9</v>
       </c>
       <c r="G218" t="s">
         <v>500</v>
@@ -7224,19 +7287,19 @@
         <v>178</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>190</v>
+        <v>53</v>
       </c>
       <c r="D219" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="E219" s="1">
         <v>3</v>
       </c>
       <c r="F219" t="s">
-        <v>498</v>
+        <v>9</v>
       </c>
       <c r="G219" t="s">
-        <v>500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -7247,16 +7310,16 @@
         <v>178</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D220" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="E220" s="1">
         <v>3</v>
       </c>
       <c r="F220" t="s">
-        <v>498</v>
+        <v>9</v>
       </c>
       <c r="G220" t="s">
         <v>500</v>
@@ -7270,19 +7333,19 @@
         <v>178</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>192</v>
+        <v>21</v>
       </c>
       <c r="D221" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="E221" s="1">
         <v>3</v>
       </c>
       <c r="F221" t="s">
-        <v>498</v>
+        <v>9</v>
       </c>
       <c r="G221" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -7293,19 +7356,19 @@
         <v>178</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="D222" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="E222" s="1">
         <v>3</v>
       </c>
       <c r="F222" t="s">
-        <v>498</v>
+        <v>9</v>
       </c>
       <c r="G222" t="s">
-        <v>10</v>
+        <v>500</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -7316,16 +7379,16 @@
         <v>178</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="D223" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="E223" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F223" t="s">
-        <v>499</v>
+        <v>9</v>
       </c>
       <c r="G223" t="s">
         <v>500</v>
@@ -7339,16 +7402,16 @@
         <v>178</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>42</v>
+        <v>186</v>
       </c>
       <c r="D224" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="E224" s="1">
         <v>3</v>
       </c>
       <c r="F224" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G224" t="s">
         <v>500</v>
@@ -7362,16 +7425,16 @@
         <v>178</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="D225" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="E225" s="1">
         <v>3</v>
       </c>
       <c r="F225" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G225" t="s">
         <v>500</v>
@@ -7385,16 +7448,16 @@
         <v>178</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="D226" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="E226" s="1">
         <v>3</v>
       </c>
       <c r="F226" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G226" t="s">
         <v>500</v>
@@ -7408,65 +7471,62 @@
         <v>178</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>43</v>
+        <v>189</v>
       </c>
       <c r="D227" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E227" s="1">
         <v>3</v>
       </c>
       <c r="F227" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G227" t="s">
-        <v>10</v>
+        <v>500</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
       <c r="B228" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D228" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="E228" s="1">
         <v>3</v>
       </c>
       <c r="F228" t="s">
-        <v>9</v>
+        <v>498</v>
       </c>
       <c r="G228" t="s">
         <v>500</v>
-      </c>
-      <c r="H228" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
       <c r="B229" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D229" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="E229" s="1">
         <v>3</v>
       </c>
       <c r="F229" t="s">
-        <v>9</v>
+        <v>498</v>
       </c>
       <c r="G229" t="s">
         <v>500</v>
@@ -7474,22 +7534,22 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
       <c r="B230" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D230" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="E230" s="1">
         <v>3</v>
       </c>
       <c r="F230" t="s">
-        <v>9</v>
+        <v>498</v>
       </c>
       <c r="G230" t="s">
         <v>500</v>
@@ -7497,45 +7557,45 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
       <c r="B231" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>197</v>
+        <v>63</v>
       </c>
       <c r="D231" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="E231" s="1">
         <v>3</v>
       </c>
       <c r="F231" t="s">
-        <v>9</v>
+        <v>498</v>
       </c>
       <c r="G231" t="s">
-        <v>500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
       <c r="B232" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="D232" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="E232" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F232" t="s">
-        <v>9</v>
+        <v>499</v>
       </c>
       <c r="G232" t="s">
         <v>500</v>
@@ -7543,22 +7603,22 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
       <c r="B233" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D233" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E233" s="1">
         <v>3</v>
       </c>
       <c r="F233" t="s">
-        <v>9</v>
+        <v>499</v>
       </c>
       <c r="G233" t="s">
         <v>500</v>
@@ -7566,45 +7626,45 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
       <c r="B234" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="D234" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="E234" s="1">
         <v>3</v>
       </c>
       <c r="F234" t="s">
-        <v>9</v>
+        <v>499</v>
       </c>
       <c r="G234" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
       <c r="B235" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>57</v>
+        <v>168</v>
       </c>
       <c r="D235" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="E235" s="1">
         <v>3</v>
       </c>
       <c r="F235" t="s">
-        <v>9</v>
+        <v>499</v>
       </c>
       <c r="G235" t="s">
         <v>500</v>
@@ -7612,25 +7672,25 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
       <c r="B236" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>199</v>
+        <v>43</v>
       </c>
       <c r="D236" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="E236" s="1">
         <v>3</v>
       </c>
       <c r="F236" t="s">
-        <v>9</v>
+        <v>499</v>
       </c>
       <c r="G236" t="s">
-        <v>517</v>
+        <v>10</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
@@ -7638,13 +7698,13 @@
         <v>249</v>
       </c>
       <c r="B237" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>46</v>
+        <v>194</v>
       </c>
       <c r="D237" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="E237" s="1">
         <v>3</v>
@@ -7653,7 +7713,10 @@
         <v>9</v>
       </c>
       <c r="G237" t="s">
-        <v>10</v>
+        <v>500</v>
+      </c>
+      <c r="H237" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -7661,13 +7724,13 @@
         <v>249</v>
       </c>
       <c r="B238" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>13</v>
+        <v>195</v>
       </c>
       <c r="D238" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="E238" s="1">
         <v>3</v>
@@ -7676,7 +7739,7 @@
         <v>9</v>
       </c>
       <c r="G238" t="s">
-        <v>10</v>
+        <v>500</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
@@ -7684,13 +7747,13 @@
         <v>249</v>
       </c>
       <c r="B239" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
       <c r="D239" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="E239" s="1">
         <v>3</v>
@@ -7699,7 +7762,7 @@
         <v>9</v>
       </c>
       <c r="G239" t="s">
-        <v>10</v>
+        <v>500</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
@@ -7707,13 +7770,13 @@
         <v>249</v>
       </c>
       <c r="B240" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D240" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="E240" s="1">
         <v>3</v>
@@ -7730,13 +7793,13 @@
         <v>249</v>
       </c>
       <c r="B241" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="D241" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="E241" s="1">
         <v>3</v>
@@ -7753,13 +7816,13 @@
         <v>249</v>
       </c>
       <c r="B242" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>202</v>
+        <v>14</v>
       </c>
       <c r="D242" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="E242" s="1">
         <v>3</v>
@@ -7776,13 +7839,13 @@
         <v>249</v>
       </c>
       <c r="B243" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>203</v>
+        <v>21</v>
       </c>
       <c r="D243" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="E243" s="1">
         <v>3</v>
@@ -7791,7 +7854,7 @@
         <v>9</v>
       </c>
       <c r="G243" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -7799,13 +7862,13 @@
         <v>249</v>
       </c>
       <c r="B244" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>204</v>
+        <v>57</v>
       </c>
       <c r="D244" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="E244" s="1">
         <v>3</v>
@@ -7822,13 +7885,13 @@
         <v>249</v>
       </c>
       <c r="B245" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D245" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="E245" s="1">
         <v>3</v>
@@ -7837,7 +7900,7 @@
         <v>9</v>
       </c>
       <c r="G245" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -7848,10 +7911,10 @@
         <v>200</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>206</v>
+        <v>46</v>
       </c>
       <c r="D246" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="E246" s="1">
         <v>3</v>
@@ -7871,10 +7934,10 @@
         <v>200</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>207</v>
+        <v>13</v>
       </c>
       <c r="D247" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="E247" s="1">
         <v>3</v>
@@ -7883,7 +7946,7 @@
         <v>9</v>
       </c>
       <c r="G247" t="s">
-        <v>500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -7894,10 +7957,10 @@
         <v>200</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>208</v>
+        <v>142</v>
       </c>
       <c r="D248" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="E248" s="1">
         <v>3</v>
@@ -7906,7 +7969,7 @@
         <v>9</v>
       </c>
       <c r="G248" t="s">
-        <v>500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
@@ -7917,10 +7980,10 @@
         <v>200</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D249" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="E249" s="1">
         <v>3</v>
@@ -7929,7 +7992,7 @@
         <v>9</v>
       </c>
       <c r="G249" t="s">
-        <v>10</v>
+        <v>500</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -7940,10 +8003,10 @@
         <v>200</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="D250" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="E250" s="1">
         <v>3</v>
@@ -7952,7 +8015,7 @@
         <v>9</v>
       </c>
       <c r="G250" t="s">
-        <v>10</v>
+        <v>500</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -7963,10 +8026,10 @@
         <v>200</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D251" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="E251" s="1">
         <v>3</v>
@@ -7986,10 +8049,10 @@
         <v>200</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>117</v>
+        <v>203</v>
       </c>
       <c r="D252" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="E252" s="1">
         <v>3</v>
@@ -7998,7 +8061,7 @@
         <v>9</v>
       </c>
       <c r="G252" t="s">
-        <v>10</v>
+        <v>500</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -8009,10 +8072,10 @@
         <v>200</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>53</v>
+        <v>204</v>
       </c>
       <c r="D253" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="E253" s="1">
         <v>3</v>
@@ -8021,7 +8084,7 @@
         <v>9</v>
       </c>
       <c r="G253" t="s">
-        <v>10</v>
+        <v>500</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -8032,10 +8095,10 @@
         <v>200</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D254" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="E254" s="1">
         <v>3</v>
@@ -8044,7 +8107,7 @@
         <v>9</v>
       </c>
       <c r="G254" t="s">
-        <v>10</v>
+        <v>500</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -8055,10 +8118,10 @@
         <v>200</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D255" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E255" s="1">
         <v>3</v>
@@ -8067,7 +8130,7 @@
         <v>9</v>
       </c>
       <c r="G255" t="s">
-        <v>517</v>
+        <v>10</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -8078,10 +8141,10 @@
         <v>200</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="D256" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="E256" s="1">
         <v>3</v>
@@ -8101,10 +8164,10 @@
         <v>200</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D257" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="E257" s="1">
         <v>3</v>
@@ -8113,10 +8176,7 @@
         <v>9</v>
       </c>
       <c r="G257" t="s">
-        <v>10</v>
-      </c>
-      <c r="H257" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
@@ -8127,10 +8187,10 @@
         <v>200</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D258" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="E258" s="1">
         <v>3</v>
@@ -8139,10 +8199,7 @@
         <v>9</v>
       </c>
       <c r="G258" t="s">
-        <v>500</v>
-      </c>
-      <c r="H258" t="s">
-        <v>519</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
@@ -8153,10 +8210,10 @@
         <v>200</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>21</v>
+        <v>546</v>
       </c>
       <c r="D259" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="E259" s="1">
         <v>3</v>
@@ -8165,7 +8222,7 @@
         <v>9</v>
       </c>
       <c r="G259" t="s">
-        <v>501</v>
+        <v>10</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
@@ -8176,10 +8233,10 @@
         <v>200</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="D260" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="E260" s="1">
         <v>3</v>
@@ -8199,16 +8256,16 @@
         <v>200</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D261" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E261" s="1">
         <v>3</v>
       </c>
       <c r="F261" t="s">
-        <v>498</v>
+        <v>9</v>
       </c>
       <c r="G261" t="s">
         <v>500</v>
@@ -8222,16 +8279,16 @@
         <v>200</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="D262" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="E262" s="1">
         <v>3</v>
       </c>
       <c r="F262" t="s">
-        <v>498</v>
+        <v>9</v>
       </c>
       <c r="G262" t="s">
         <v>10</v>
@@ -8245,16 +8302,16 @@
         <v>200</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>466</v>
+        <v>53</v>
+      </c>
+      <c r="D263" t="s">
+        <v>448</v>
       </c>
       <c r="E263" s="1">
         <v>3</v>
       </c>
       <c r="F263" t="s">
-        <v>498</v>
+        <v>9</v>
       </c>
       <c r="G263" t="s">
         <v>10</v>
@@ -8268,16 +8325,16 @@
         <v>200</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D264" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="E264" s="1">
         <v>3</v>
       </c>
       <c r="F264" t="s">
-        <v>498</v>
+        <v>9</v>
       </c>
       <c r="G264" t="s">
         <v>10</v>
@@ -8291,19 +8348,19 @@
         <v>200</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D265" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="E265" s="1">
         <v>3</v>
       </c>
       <c r="F265" t="s">
-        <v>498</v>
+        <v>9</v>
       </c>
       <c r="G265" t="s">
-        <v>10</v>
+        <v>517</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
@@ -8314,22 +8371,19 @@
         <v>200</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>220</v>
+        <v>134</v>
       </c>
       <c r="D266" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="E266" s="1">
         <v>3</v>
       </c>
       <c r="F266" t="s">
-        <v>498</v>
+        <v>9</v>
       </c>
       <c r="G266" t="s">
         <v>500</v>
-      </c>
-      <c r="H266" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
@@ -8340,22 +8394,22 @@
         <v>200</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D267" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="E267" s="1">
         <v>3</v>
       </c>
       <c r="F267" t="s">
-        <v>498</v>
+        <v>9</v>
       </c>
       <c r="G267" t="s">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="H267" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
@@ -8366,22 +8420,22 @@
         <v>200</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D268" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="E268" s="1">
         <v>3</v>
       </c>
       <c r="F268" t="s">
-        <v>498</v>
+        <v>9</v>
       </c>
       <c r="G268" t="s">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="H268" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
@@ -8392,19 +8446,19 @@
         <v>200</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="D269" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="E269" s="1">
         <v>3</v>
       </c>
       <c r="F269" t="s">
-        <v>498</v>
+        <v>9</v>
       </c>
       <c r="G269" t="s">
-        <v>10</v>
+        <v>501</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
@@ -8415,16 +8469,16 @@
         <v>200</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>223</v>
+        <v>22</v>
       </c>
       <c r="D270" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="E270" s="1">
         <v>3</v>
       </c>
       <c r="F270" t="s">
-        <v>499</v>
+        <v>9</v>
       </c>
       <c r="G270" t="s">
         <v>10</v>
@@ -8438,19 +8492,19 @@
         <v>200</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D271" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E271" s="1">
         <v>3</v>
       </c>
       <c r="F271" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G271" t="s">
-        <v>10</v>
+        <v>500</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
@@ -8461,16 +8515,16 @@
         <v>200</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="D272" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="E272" s="1">
         <v>3</v>
       </c>
       <c r="F272" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G272" t="s">
         <v>10</v>
@@ -8484,19 +8538,19 @@
         <v>200</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D273" t="s">
-        <v>473</v>
+        <v>217</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="E273" s="1">
         <v>3</v>
       </c>
       <c r="F273" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G273" t="s">
-        <v>500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
@@ -8507,19 +8561,19 @@
         <v>200</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="D274" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="E274" s="1">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="F274" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G274" t="s">
-        <v>500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
@@ -8530,19 +8584,19 @@
         <v>200</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>168</v>
+        <v>219</v>
       </c>
       <c r="D275" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="E275" s="1">
         <v>3</v>
       </c>
       <c r="F275" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G275" t="s">
-        <v>500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
@@ -8553,19 +8607,22 @@
         <v>200</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D276" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="E276" s="1">
         <v>3</v>
       </c>
       <c r="F276" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G276" t="s">
         <v>500</v>
+      </c>
+      <c r="H276" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
@@ -8576,22 +8633,22 @@
         <v>200</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D277" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="E277" s="1">
         <v>3</v>
       </c>
       <c r="F277" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G277" t="s">
         <v>500</v>
       </c>
       <c r="H277" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
@@ -8602,39 +8659,42 @@
         <v>200</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>43</v>
+        <v>222</v>
       </c>
       <c r="D278" t="s">
-        <v>448</v>
+        <v>469</v>
       </c>
       <c r="E278" s="1">
         <v>3</v>
       </c>
       <c r="F278" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G278" t="s">
         <v>10</v>
       </c>
+      <c r="H278" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>249</v>
       </c>
       <c r="B279" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D279" t="s">
-        <v>477</v>
+        <v>448</v>
       </c>
       <c r="E279" s="1">
         <v>3</v>
       </c>
       <c r="F279" t="s">
-        <v>9</v>
+        <v>498</v>
       </c>
       <c r="G279" t="s">
         <v>10</v>
@@ -8645,19 +8705,19 @@
         <v>249</v>
       </c>
       <c r="B280" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
       <c r="D280" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="E280" s="1">
         <v>3</v>
       </c>
       <c r="F280" t="s">
-        <v>9</v>
+        <v>499</v>
       </c>
       <c r="G280" t="s">
         <v>10</v>
@@ -8668,19 +8728,19 @@
         <v>249</v>
       </c>
       <c r="B281" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D281" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="E281" s="1">
         <v>3</v>
       </c>
       <c r="F281" t="s">
-        <v>9</v>
+        <v>499</v>
       </c>
       <c r="G281" t="s">
         <v>10</v>
@@ -8691,22 +8751,22 @@
         <v>249</v>
       </c>
       <c r="B282" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D282" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="E282" s="1">
         <v>3</v>
       </c>
       <c r="F282" t="s">
-        <v>9</v>
+        <v>499</v>
       </c>
       <c r="G282" t="s">
-        <v>500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
@@ -8714,22 +8774,22 @@
         <v>249</v>
       </c>
       <c r="B283" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="D283" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="E283" s="1">
         <v>3</v>
       </c>
       <c r="F283" t="s">
-        <v>9</v>
+        <v>499</v>
       </c>
       <c r="G283" t="s">
-        <v>10</v>
+        <v>500</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
@@ -8737,22 +8797,22 @@
         <v>249</v>
       </c>
       <c r="B284" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="D284" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="E284" s="1">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="F284" t="s">
-        <v>9</v>
+        <v>499</v>
       </c>
       <c r="G284" t="s">
-        <v>10</v>
+        <v>500</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
@@ -8760,19 +8820,19 @@
         <v>249</v>
       </c>
       <c r="B285" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>232</v>
+        <v>168</v>
       </c>
       <c r="D285" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="E285" s="1">
         <v>3</v>
       </c>
       <c r="F285" t="s">
-        <v>9</v>
+        <v>499</v>
       </c>
       <c r="G285" t="s">
         <v>500</v>
@@ -8783,19 +8843,19 @@
         <v>249</v>
       </c>
       <c r="B286" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D286" t="s">
-        <v>482</v>
+        <v>453</v>
       </c>
       <c r="E286" s="1">
         <v>3</v>
       </c>
       <c r="F286" t="s">
-        <v>9</v>
+        <v>499</v>
       </c>
       <c r="G286" t="s">
         <v>500</v>
@@ -8806,22 +8866,25 @@
         <v>249</v>
       </c>
       <c r="B287" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>53</v>
+        <v>227</v>
       </c>
       <c r="D287" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E287" s="1">
         <v>3</v>
       </c>
       <c r="F287" t="s">
-        <v>9</v>
+        <v>499</v>
       </c>
       <c r="G287" t="s">
-        <v>10</v>
+        <v>500</v>
+      </c>
+      <c r="H287" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
@@ -8829,25 +8892,25 @@
         <v>249</v>
       </c>
       <c r="B288" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>234</v>
+        <v>43</v>
       </c>
       <c r="D288" t="s">
-        <v>483</v>
+        <v>448</v>
       </c>
       <c r="E288" s="1">
         <v>3</v>
       </c>
       <c r="F288" t="s">
-        <v>9</v>
+        <v>499</v>
       </c>
       <c r="G288" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>249</v>
       </c>
@@ -8855,10 +8918,10 @@
         <v>228</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>235</v>
+        <v>46</v>
       </c>
       <c r="D289" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="E289" s="1">
         <v>3</v>
@@ -8867,10 +8930,10 @@
         <v>9</v>
       </c>
       <c r="G289" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>249</v>
       </c>
@@ -8878,10 +8941,10 @@
         <v>228</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>236</v>
+        <v>13</v>
       </c>
       <c r="D290" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="E290" s="1">
         <v>3</v>
@@ -8890,10 +8953,10 @@
         <v>9</v>
       </c>
       <c r="G290" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>249</v>
       </c>
@@ -8901,10 +8964,10 @@
         <v>228</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D291" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="E291" s="1">
         <v>3</v>
@@ -8916,7 +8979,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>249</v>
       </c>
@@ -8924,10 +8987,10 @@
         <v>228</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>21</v>
+        <v>230</v>
       </c>
       <c r="D292" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="E292" s="1">
         <v>3</v>
@@ -8936,10 +8999,10 @@
         <v>9</v>
       </c>
       <c r="G292" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>249</v>
       </c>
@@ -8947,10 +9010,10 @@
         <v>228</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="D293" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="E293" s="1">
         <v>3</v>
@@ -8962,7 +9025,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>249</v>
       </c>
@@ -8970,22 +9033,22 @@
         <v>228</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>60</v>
+        <v>231</v>
       </c>
       <c r="D294" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="E294" s="1">
         <v>3</v>
       </c>
       <c r="F294" t="s">
-        <v>498</v>
+        <v>9</v>
       </c>
       <c r="G294" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>249</v>
       </c>
@@ -8993,22 +9056,22 @@
         <v>228</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D295" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="E295" s="1">
         <v>3</v>
       </c>
       <c r="F295" t="s">
-        <v>499</v>
+        <v>9</v>
       </c>
       <c r="G295" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>249</v>
       </c>
@@ -9016,22 +9079,22 @@
         <v>228</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>165</v>
+        <v>547</v>
       </c>
       <c r="D296" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="E296" s="1">
         <v>3</v>
       </c>
       <c r="F296" t="s">
-        <v>499</v>
+        <v>9</v>
       </c>
       <c r="G296" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>249</v>
       </c>
@@ -9039,22 +9102,22 @@
         <v>228</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>42</v>
+        <v>233</v>
       </c>
       <c r="D297" t="s">
-        <v>310</v>
+        <v>482</v>
       </c>
       <c r="E297" s="1">
         <v>3</v>
       </c>
       <c r="F297" t="s">
-        <v>499</v>
+        <v>9</v>
       </c>
       <c r="G297" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>249</v>
       </c>
@@ -9062,22 +9125,22 @@
         <v>228</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>167</v>
+        <v>548</v>
       </c>
       <c r="D298" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="E298" s="1">
         <v>3</v>
       </c>
       <c r="F298" t="s">
-        <v>499</v>
+        <v>9</v>
       </c>
       <c r="G298" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>249</v>
       </c>
@@ -9085,7 +9148,7 @@
         <v>228</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D299" t="s">
         <v>477</v>
@@ -9094,251 +9157,573 @@
         <v>3</v>
       </c>
       <c r="F299" t="s">
-        <v>499</v>
+        <v>9</v>
       </c>
       <c r="G299" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
+        <v>249</v>
+      </c>
+      <c r="B300" t="s">
+        <v>228</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D300" t="s">
+        <v>483</v>
+      </c>
+      <c r="E300" s="1">
+        <v>3</v>
+      </c>
+      <c r="F300" t="s">
+        <v>9</v>
+      </c>
+      <c r="G300" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>249</v>
+      </c>
+      <c r="B301" t="s">
+        <v>228</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D301" t="s">
+        <v>484</v>
+      </c>
+      <c r="E301" s="1">
+        <v>3</v>
+      </c>
+      <c r="F301" t="s">
+        <v>9</v>
+      </c>
+      <c r="G301" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>249</v>
+      </c>
+      <c r="B302" t="s">
+        <v>228</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D302" t="s">
+        <v>485</v>
+      </c>
+      <c r="E302" s="1">
+        <v>3</v>
+      </c>
+      <c r="F302" t="s">
+        <v>9</v>
+      </c>
+      <c r="G302" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>249</v>
+      </c>
+      <c r="B303" t="s">
+        <v>228</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="D303" t="s">
+        <v>485</v>
+      </c>
+      <c r="E303" s="1">
+        <v>3</v>
+      </c>
+      <c r="F303" t="s">
+        <v>9</v>
+      </c>
+      <c r="G303" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>249</v>
+      </c>
+      <c r="B304" t="s">
+        <v>228</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D304" t="s">
+        <v>486</v>
+      </c>
+      <c r="E304" s="1">
+        <v>3</v>
+      </c>
+      <c r="F304" t="s">
+        <v>9</v>
+      </c>
+      <c r="G304" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>249</v>
+      </c>
+      <c r="B305" t="s">
+        <v>228</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D305" t="s">
+        <v>487</v>
+      </c>
+      <c r="E305" s="1">
+        <v>3</v>
+      </c>
+      <c r="F305" t="s">
+        <v>9</v>
+      </c>
+      <c r="G305" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>249</v>
+      </c>
+      <c r="B306" t="s">
+        <v>228</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D306" t="s">
+        <v>477</v>
+      </c>
+      <c r="E306" s="1">
+        <v>3</v>
+      </c>
+      <c r="F306" t="s">
+        <v>9</v>
+      </c>
+      <c r="G306" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>249</v>
+      </c>
+      <c r="B307" t="s">
+        <v>228</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D307" t="s">
+        <v>488</v>
+      </c>
+      <c r="E307" s="1">
+        <v>3</v>
+      </c>
+      <c r="F307" t="s">
+        <v>498</v>
+      </c>
+      <c r="G307" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>249</v>
+      </c>
+      <c r="B308" t="s">
+        <v>228</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="D308" t="s">
+        <v>536</v>
+      </c>
+      <c r="E308" s="1">
+        <v>3</v>
+      </c>
+      <c r="F308" t="s">
+        <v>498</v>
+      </c>
+      <c r="G308" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>249</v>
+      </c>
+      <c r="B309" t="s">
+        <v>228</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D309" t="s">
+        <v>489</v>
+      </c>
+      <c r="E309" s="1">
+        <v>3</v>
+      </c>
+      <c r="F309" t="s">
+        <v>499</v>
+      </c>
+      <c r="G309" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>249</v>
+      </c>
+      <c r="B310" t="s">
+        <v>228</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D310" t="s">
+        <v>490</v>
+      </c>
+      <c r="E310" s="1">
+        <v>3</v>
+      </c>
+      <c r="F310" t="s">
+        <v>499</v>
+      </c>
+      <c r="G310" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>249</v>
+      </c>
+      <c r="B311" t="s">
+        <v>228</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D311" t="s">
+        <v>310</v>
+      </c>
+      <c r="E311" s="1">
+        <v>3</v>
+      </c>
+      <c r="F311" t="s">
+        <v>499</v>
+      </c>
+      <c r="G311" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>249</v>
+      </c>
+      <c r="B312" t="s">
+        <v>228</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D312" t="s">
+        <v>491</v>
+      </c>
+      <c r="E312" s="1">
+        <v>3</v>
+      </c>
+      <c r="F312" t="s">
+        <v>499</v>
+      </c>
+      <c r="G312" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>249</v>
+      </c>
+      <c r="B313" t="s">
+        <v>228</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D313" t="s">
+        <v>477</v>
+      </c>
+      <c r="E313" s="1">
+        <v>3</v>
+      </c>
+      <c r="F313" t="s">
+        <v>499</v>
+      </c>
+      <c r="G313" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
         <v>250</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B314" t="s">
         <v>240</v>
       </c>
-      <c r="C300" s="2" t="s">
+      <c r="C314" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D300" t="s">
+      <c r="D314" t="s">
         <v>492</v>
       </c>
-      <c r="E300" s="1">
-        <v>3</v>
-      </c>
-      <c r="F300" t="s">
-        <v>9</v>
-      </c>
-      <c r="G300" t="s">
-        <v>500</v>
-      </c>
-      <c r="H300" t="s">
+      <c r="E314" s="1">
+        <v>3</v>
+      </c>
+      <c r="F314" t="s">
+        <v>9</v>
+      </c>
+      <c r="G314" t="s">
+        <v>500</v>
+      </c>
+      <c r="H314" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
         <v>250</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B315" t="s">
         <v>240</v>
       </c>
-      <c r="C301" s="2" t="s">
+      <c r="C315" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D301" t="s">
+      <c r="D315" t="s">
         <v>493</v>
       </c>
-      <c r="E301" s="1">
-        <v>3</v>
-      </c>
-      <c r="F301" t="s">
-        <v>9</v>
-      </c>
-      <c r="G301" t="s">
+      <c r="E315" s="1">
+        <v>3</v>
+      </c>
+      <c r="F315" t="s">
+        <v>9</v>
+      </c>
+      <c r="G315" t="s">
         <v>10</v>
       </c>
-      <c r="H301" t="s">
+      <c r="H315" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
         <v>250</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B316" t="s">
         <v>240</v>
       </c>
-      <c r="C302" s="2" t="s">
+      <c r="C316" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D302" t="s">
+      <c r="D316" t="s">
         <v>494</v>
       </c>
-      <c r="E302" s="1">
-        <v>3</v>
-      </c>
-      <c r="F302" t="s">
-        <v>9</v>
-      </c>
-      <c r="G302" t="s">
+      <c r="E316" s="1">
+        <v>3</v>
+      </c>
+      <c r="F316" t="s">
+        <v>9</v>
+      </c>
+      <c r="G316" t="s">
         <v>10</v>
       </c>
-      <c r="H302" t="s">
+      <c r="H316" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
         <v>250</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B317" t="s">
         <v>240</v>
       </c>
-      <c r="C303" s="2" t="s">
+      <c r="C317" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D303" t="s">
+      <c r="D317" t="s">
         <v>495</v>
       </c>
-      <c r="E303" s="1">
-        <v>3</v>
-      </c>
-      <c r="F303" t="s">
-        <v>9</v>
-      </c>
-      <c r="G303" t="s">
+      <c r="E317" s="1">
+        <v>3</v>
+      </c>
+      <c r="F317" t="s">
+        <v>9</v>
+      </c>
+      <c r="G317" t="s">
         <v>10</v>
       </c>
-      <c r="H303" t="s">
+      <c r="H317" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
         <v>250</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B318" t="s">
         <v>240</v>
       </c>
-      <c r="C304" s="2" t="s">
+      <c r="C318" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D304" t="s">
+      <c r="D318" t="s">
         <v>298</v>
       </c>
-      <c r="E304" s="1">
-        <v>3</v>
-      </c>
-      <c r="F304" t="s">
-        <v>9</v>
-      </c>
-      <c r="G304" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
+      <c r="E318" s="1">
+        <v>3</v>
+      </c>
+      <c r="F318" t="s">
+        <v>9</v>
+      </c>
+      <c r="G318" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
         <v>250</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B319" t="s">
         <v>240</v>
       </c>
-      <c r="C305" s="2" t="s">
+      <c r="C319" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D305" t="s">
+      <c r="D319" t="s">
         <v>298</v>
       </c>
-      <c r="E305" s="1">
-        <v>3</v>
-      </c>
-      <c r="F305" t="s">
-        <v>9</v>
-      </c>
-      <c r="G305" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
+      <c r="E319" s="1">
+        <v>3</v>
+      </c>
+      <c r="F319" t="s">
+        <v>9</v>
+      </c>
+      <c r="G319" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
         <v>250</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B320" t="s">
         <v>240</v>
       </c>
-      <c r="C306" s="2" t="s">
+      <c r="C320" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D306" t="s">
+      <c r="D320" t="s">
         <v>496</v>
       </c>
-      <c r="E306" s="1">
-        <v>3</v>
-      </c>
-      <c r="F306" t="s">
-        <v>9</v>
-      </c>
-      <c r="G306" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
+      <c r="E320" s="1">
+        <v>3</v>
+      </c>
+      <c r="F320" t="s">
+        <v>9</v>
+      </c>
+      <c r="G320" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
         <v>250</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B321" t="s">
         <v>240</v>
       </c>
-      <c r="C307" s="2" t="s">
+      <c r="C321" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D307" t="s">
+      <c r="D321" t="s">
         <v>497</v>
       </c>
-      <c r="E307" s="1">
+      <c r="E321" s="1">
         <v>1.5</v>
       </c>
-      <c r="F307" t="s">
-        <v>9</v>
-      </c>
-      <c r="G307" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
-        <v>249</v>
-      </c>
-      <c r="B308" t="s">
+      <c r="F321" t="s">
+        <v>9</v>
+      </c>
+      <c r="G321" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>249</v>
+      </c>
+      <c r="B322" t="s">
         <v>247</v>
       </c>
-      <c r="C308" s="2" t="s">
+      <c r="C322" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D308" t="s">
+      <c r="D322" t="s">
         <v>454</v>
       </c>
-      <c r="E308" s="1">
-        <v>3</v>
-      </c>
-      <c r="F308" t="s">
-        <v>9</v>
-      </c>
-      <c r="G308" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
-        <v>249</v>
-      </c>
-      <c r="B309" t="s">
+      <c r="E322" s="1">
+        <v>3</v>
+      </c>
+      <c r="F322" t="s">
+        <v>9</v>
+      </c>
+      <c r="G322" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>249</v>
+      </c>
+      <c r="B323" t="s">
         <v>247</v>
       </c>
-      <c r="C309" s="2" t="s">
+      <c r="C323" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D309" t="s">
+      <c r="D323" t="s">
         <v>454</v>
       </c>
-      <c r="E309" s="1">
-        <v>3</v>
-      </c>
-      <c r="F309" t="s">
-        <v>9</v>
-      </c>
-      <c r="G309" t="s">
+      <c r="E323" s="1">
+        <v>3</v>
+      </c>
+      <c r="F323" t="s">
+        <v>9</v>
+      </c>
+      <c r="G323" t="s">
         <v>500</v>
       </c>
     </row>
